--- a/08_MACHINE_LEARNING/DATA/Final_norotations.xlsx
+++ b/08_MACHINE_LEARNING/DATA/Final_norotations.xlsx
@@ -538,10 +538,10 @@
         <v>61</v>
       </c>
       <c r="L2" t="n">
-        <v>2.714889425579488</v>
+        <v>2.714889425579539</v>
       </c>
       <c r="M2" t="n">
-        <v>1.174724989402936</v>
+        <v>1.174724989402929</v>
       </c>
     </row>
     <row r="3">
@@ -583,10 +583,10 @@
         <v>55</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9124379043756237</v>
+        <v>0.9124379043756243</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.2972362069638443</v>
+        <v>-0.2972362069638463</v>
       </c>
     </row>
     <row r="4">
@@ -628,10 +628,10 @@
         <v>84</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.979244327287594</v>
+        <v>-1.979244327287599</v>
       </c>
       <c r="M4" t="n">
-        <v>2.22567771085903</v>
+        <v>2.225677710859026</v>
       </c>
     </row>
     <row r="5">
@@ -673,10 +673,10 @@
         <v>66</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.023688766084219</v>
+        <v>-2.023688766084224</v>
       </c>
       <c r="M5" t="n">
-        <v>0.466227258954141</v>
+        <v>0.466227258954139</v>
       </c>
     </row>
     <row r="6">
@@ -718,10 +718,10 @@
         <v>58</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8675812566543387</v>
+        <v>0.8675812566543399</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5345997144375979</v>
+        <v>0.5345997144375915</v>
       </c>
     </row>
     <row r="7">
@@ -763,10 +763,10 @@
         <v>55</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1775930098472961</v>
+        <v>0.1775930098472971</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.2755426329159379</v>
+        <v>-0.2755426329159401</v>
       </c>
     </row>
     <row r="8">
@@ -808,10 +808,10 @@
         <v>57</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5184002329425886</v>
+        <v>0.5184002329425885</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2365024556157418</v>
+        <v>0.2365024556157374</v>
       </c>
     </row>
     <row r="9">
@@ -898,10 +898,10 @@
         <v>68</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.755291021359088</v>
+        <v>-0.7552910213590864</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02781430166757595</v>
+        <v>-0.02781430166757738</v>
       </c>
     </row>
     <row r="11">
@@ -943,10 +943,10 @@
         <v>67</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.420831847586417</v>
+        <v>-1.420831847586419</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7374899726591285</v>
+        <v>0.7374899726591255</v>
       </c>
     </row>
     <row r="12">
@@ -988,10 +988,10 @@
         <v>63</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.2789406130779433</v>
+        <v>-0.2789406130779413</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.008712903813133039</v>
+        <v>-0.008712903813134399</v>
       </c>
     </row>
     <row r="13">
@@ -1033,10 +1033,10 @@
         <v>48</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.25265723940155</v>
+        <v>-1.252657239401554</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.334085140922188</v>
+        <v>-0.3340851409221917</v>
       </c>
     </row>
     <row r="14">
@@ -1078,10 +1078,10 @@
         <v>53</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.154025943771536</v>
+        <v>-0.1540259437715351</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1985918312574852</v>
+        <v>-0.1985918312574895</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         <v>64</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.6000052949345823</v>
+        <v>-0.6000052949345807</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4344444630375843</v>
+        <v>0.43444446303758</v>
       </c>
     </row>
     <row r="16">
@@ -1168,10 +1168,10 @@
         <v>51</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3606664513364241</v>
+        <v>-0.3606664513364258</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.4188105147657462</v>
+        <v>-0.4188105147657479</v>
       </c>
     </row>
     <row r="17">
@@ -1213,10 +1213,10 @@
         <v>49</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1937864396101378</v>
+        <v>0.1937864396101367</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.6200135484633291</v>
+        <v>-0.62001354846333</v>
       </c>
     </row>
     <row r="18">
@@ -1258,10 +1258,10 @@
         <v>51</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6950084804252509</v>
+        <v>0.6950084804252519</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.4543500662323422</v>
+        <v>-0.4543500662323434</v>
       </c>
     </row>
     <row r="19">
@@ -1303,10 +1303,10 @@
         <v>57</v>
       </c>
       <c r="L19" t="n">
-        <v>4.377057171392873</v>
+        <v>4.377057171392877</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8733948260676215</v>
+        <v>0.8733948260676204</v>
       </c>
     </row>
     <row r="20">
@@ -1348,10 +1348,10 @@
         <v>51</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06801029234217022</v>
+        <v>0.06801029234216892</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.08577554242855907</v>
+        <v>-0.08577554242856061</v>
       </c>
     </row>
     <row r="21">
@@ -1393,10 +1393,10 @@
         <v>74</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.327632869461822</v>
+        <v>-1.327632869461823</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1123327148734839</v>
+        <v>-0.1123327148734847</v>
       </c>
     </row>
     <row r="22">
@@ -1438,10 +1438,10 @@
         <v>50</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2028127037579991</v>
+        <v>0.2028127037580016</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.292501507976246</v>
+        <v>-1.292501507976245</v>
       </c>
     </row>
     <row r="23">
@@ -1483,10 +1483,10 @@
         <v>73</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.483972471983819</v>
+        <v>-1.483972471983821</v>
       </c>
       <c r="M23" t="n">
-        <v>2.298594515709737</v>
+        <v>2.298594515709729</v>
       </c>
     </row>
     <row r="24">
@@ -1528,10 +1528,10 @@
         <v>48</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.970284002907209</v>
+        <v>-0.970284002907207</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.851640585084554</v>
+        <v>-0.8516405850845562</v>
       </c>
     </row>
     <row r="25">
@@ -1576,7 +1576,7 @@
         <v>-2.239149379206262</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8320266529156556</v>
+        <v>0.8320266529156508</v>
       </c>
     </row>
     <row r="26">
@@ -1618,10 +1618,10 @@
         <v>71</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.602940538612527</v>
+        <v>-1.602940538612526</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6516722384467069</v>
+        <v>0.6516722384467017</v>
       </c>
     </row>
     <row r="27">
@@ -1663,10 +1663,10 @@
         <v>47</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2616503501993637</v>
+        <v>0.2616503501993644</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.9746747570196282</v>
+        <v>-0.9746747570196288</v>
       </c>
     </row>
     <row r="28">
@@ -1708,10 +1708,10 @@
         <v>59</v>
       </c>
       <c r="L28" t="n">
-        <v>3.526296310425942</v>
+        <v>3.526296310425946</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7301694943997252</v>
+        <v>0.7301694943997231</v>
       </c>
     </row>
     <row r="29">
@@ -1753,10 +1753,10 @@
         <v>50</v>
       </c>
       <c r="L29" t="n">
-        <v>0.327405970116483</v>
+        <v>0.3274059701164837</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.6247879548165273</v>
+        <v>-0.6247879548165286</v>
       </c>
     </row>
     <row r="30">
@@ -1798,10 +1798,10 @@
         <v>69</v>
       </c>
       <c r="L30" t="n">
-        <v>8.539150787492828</v>
+        <v>8.539150787492833</v>
       </c>
       <c r="M30" t="n">
-        <v>3.544692918297717</v>
+        <v>3.544692918297712</v>
       </c>
     </row>
     <row r="31">
@@ -1843,10 +1843,10 @@
         <v>52</v>
       </c>
       <c r="L31" t="n">
-        <v>0.248493714838239</v>
+        <v>0.2484937148382396</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.4819872258373956</v>
+        <v>-0.4819872258373969</v>
       </c>
     </row>
     <row r="32">
@@ -1888,10 +1888,10 @@
         <v>49</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.05881773075426895</v>
+        <v>-0.05881773075427048</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.336749879128184</v>
+        <v>-0.336749879128185</v>
       </c>
     </row>
     <row r="33">
@@ -1933,10 +1933,10 @@
         <v>59</v>
       </c>
       <c r="L33" t="n">
-        <v>5.982059348895415</v>
+        <v>5.98205934889542</v>
       </c>
       <c r="M33" t="n">
-        <v>1.635027880895664</v>
+        <v>1.635027880895662</v>
       </c>
     </row>
     <row r="34">
@@ -1978,10 +1978,10 @@
         <v>52</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5852342471119771</v>
+        <v>0.5852342471119779</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.3096315276629425</v>
+        <v>-0.3096315276629438</v>
       </c>
     </row>
     <row r="35">
@@ -2023,10 +2023,10 @@
         <v>64</v>
       </c>
       <c r="L35" t="n">
-        <v>5.015066321975367</v>
+        <v>5.015066321975371</v>
       </c>
       <c r="M35" t="n">
-        <v>1.924352094109049</v>
+        <v>1.924352094109046</v>
       </c>
     </row>
     <row r="36">
@@ -2068,10 +2068,10 @@
         <v>52</v>
       </c>
       <c r="L36" t="n">
-        <v>4.161630487929394</v>
+        <v>4.161630487929399</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2275175805727682</v>
+        <v>0.2275175805727681</v>
       </c>
     </row>
     <row r="37">
@@ -2113,10 +2113,10 @@
         <v>50</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.490320302118672</v>
+        <v>-1.490320302118676</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.029727176104092</v>
+        <v>-1.029727176104091</v>
       </c>
     </row>
     <row r="38">
@@ -2158,10 +2158,10 @@
         <v>59</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.7952831189515052</v>
+        <v>-0.7952831189515065</v>
       </c>
       <c r="M38" t="n">
-        <v>0.5805348021754793</v>
+        <v>0.580534802175474</v>
       </c>
     </row>
     <row r="39">
@@ -2203,10 +2203,10 @@
         <v>51</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.002121669245041016</v>
+        <v>-0.002121669245039968</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.169149846349195</v>
+        <v>-0.169149846349199</v>
       </c>
     </row>
     <row r="40">
@@ -2248,10 +2248,10 @@
         <v>53</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2590783160543561</v>
+        <v>0.259078316054358</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.09171887842528192</v>
+        <v>-0.09171887842528614</v>
       </c>
     </row>
     <row r="41">
@@ -2293,10 +2293,10 @@
         <v>80</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.599212531819192</v>
+        <v>-1.599212531819191</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1844684876967327</v>
+        <v>0.1844684876967287</v>
       </c>
     </row>
     <row r="42">
@@ -2338,10 +2338,10 @@
         <v>52</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.437049975077605</v>
+        <v>-1.437049975077606</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.7246571345516571</v>
+        <v>-0.7246571345516593</v>
       </c>
     </row>
     <row r="43">
@@ -2383,10 +2383,10 @@
         <v>53</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4348067273229632</v>
+        <v>0.4348067273229636</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.1551789967698162</v>
+        <v>-0.1551789967698179</v>
       </c>
     </row>
     <row r="44">
@@ -2428,10 +2428,10 @@
         <v>50</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.3980651529832288</v>
+        <v>-0.3980651529832306</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.5980236055555235</v>
+        <v>-0.5980236055555245</v>
       </c>
     </row>
     <row r="45">
@@ -2473,10 +2473,10 @@
         <v>50</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.8358388155527358</v>
+        <v>-0.8358388155527403</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.4294304548643653</v>
+        <v>-0.4294304548643661</v>
       </c>
     </row>
     <row r="46">
@@ -2518,10 +2518,10 @@
         <v>75</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.384687398160069</v>
+        <v>-1.384687398160072</v>
       </c>
       <c r="M46" t="n">
-        <v>3.97015840026709</v>
+        <v>3.970158400267081</v>
       </c>
     </row>
     <row r="47">
@@ -2563,10 +2563,10 @@
         <v>73</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.048880895493048</v>
+        <v>-1.048880895493047</v>
       </c>
       <c r="M47" t="n">
-        <v>0.4277400036307488</v>
+        <v>0.4277400036307472</v>
       </c>
     </row>
     <row r="48">
@@ -2608,10 +2608,10 @@
         <v>75</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.163492388310349</v>
+        <v>-1.163492388310351</v>
       </c>
       <c r="M48" t="n">
-        <v>1.099430818729557</v>
+        <v>1.099430818729555</v>
       </c>
     </row>
     <row r="49">
@@ -2653,10 +2653,10 @@
         <v>66</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.148226587047437</v>
+        <v>-1.14822658704744</v>
       </c>
       <c r="M49" t="n">
-        <v>3.194874469689963</v>
+        <v>3.194874469689955</v>
       </c>
     </row>
     <row r="50">
@@ -2698,10 +2698,10 @@
         <v>55</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3936612251186392</v>
+        <v>0.3936612251186398</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.05628228798603493</v>
+        <v>-0.05628228798603659</v>
       </c>
     </row>
     <row r="51">
@@ -2743,10 +2743,10 @@
         <v>53</v>
       </c>
       <c r="L51" t="n">
-        <v>2.959504107125038</v>
+        <v>2.959504107125041</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2259711410871636</v>
+        <v>0.225971141087163</v>
       </c>
     </row>
     <row r="52">
@@ -2788,10 +2788,10 @@
         <v>51</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.01912868488580209</v>
+        <v>-0.01912868488580375</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.4449608907451291</v>
+        <v>-0.4449608907451301</v>
       </c>
     </row>
     <row r="53">
@@ -2833,10 +2833,10 @@
         <v>50</v>
       </c>
       <c r="L53" t="n">
-        <v>0.7323225508659319</v>
+        <v>0.7323225508659331</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.5480300185093171</v>
+        <v>-0.5480300185093174</v>
       </c>
     </row>
     <row r="54">
@@ -2878,10 +2878,10 @@
         <v>59</v>
       </c>
       <c r="L54" t="n">
-        <v>3.729433850538621</v>
+        <v>3.729433850538626</v>
       </c>
       <c r="M54" t="n">
-        <v>0.5783223656029153</v>
+        <v>0.5783223656029146</v>
       </c>
     </row>
     <row r="55">
@@ -2923,10 +2923,10 @@
         <v>82</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.310814184604816</v>
+        <v>-1.310814184604819</v>
       </c>
       <c r="M55" t="n">
-        <v>3.097036303017375</v>
+        <v>3.097036303017368</v>
       </c>
     </row>
     <row r="56">
@@ -2968,10 +2968,10 @@
         <v>53</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.3791528865641664</v>
+        <v>-0.3791528865641682</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.00156128311990436</v>
+        <v>-0.001561283119906233</v>
       </c>
     </row>
     <row r="57">
@@ -3013,10 +3013,10 @@
         <v>51</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1485390114047795</v>
+        <v>0.14853901140478</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.8658268760708291</v>
+        <v>-0.8658268760708296</v>
       </c>
     </row>
     <row r="58">
@@ -3058,10 +3058,10 @@
         <v>50</v>
       </c>
       <c r="L58" t="n">
-        <v>0.408384487517821</v>
+        <v>0.4083844875178216</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.38896780270654</v>
+        <v>-0.388967802706541</v>
       </c>
     </row>
     <row r="59">
@@ -3103,10 +3103,10 @@
         <v>49</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.3701343410454772</v>
+        <v>-0.3701343410454755</v>
       </c>
       <c r="M59" t="n">
-        <v>-1.528214824972991</v>
+        <v>-1.528214824972989</v>
       </c>
     </row>
     <row r="60">
@@ -3148,10 +3148,10 @@
         <v>52</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.143035559033513</v>
+        <v>-0.143035559033512</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.2503605569745447</v>
+        <v>-0.2503605569745483</v>
       </c>
     </row>
     <row r="61">
@@ -3193,10 +3193,10 @@
         <v>54</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.5779984295418905</v>
+        <v>-0.5779984295418916</v>
       </c>
       <c r="M61" t="n">
-        <v>0.3332141509916258</v>
+        <v>0.3332141509916216</v>
       </c>
     </row>
     <row r="62">
@@ -3238,10 +3238,10 @@
         <v>49</v>
       </c>
       <c r="L62" t="n">
-        <v>-1.588735224453462</v>
+        <v>-1.588735224453467</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.3474689891228644</v>
+        <v>-0.347468989122868</v>
       </c>
     </row>
     <row r="63">
@@ -3283,7 +3283,7 @@
         <v>51</v>
       </c>
       <c r="L63" t="n">
-        <v>2.567815690706958</v>
+        <v>2.56781569070696</v>
       </c>
       <c r="M63" t="n">
         <v>-0.2103884543037463</v>
@@ -3328,10 +3328,10 @@
         <v>52</v>
       </c>
       <c r="L64" t="n">
-        <v>3.162564826438315</v>
+        <v>3.162564826438318</v>
       </c>
       <c r="M64" t="n">
-        <v>0.02191780249863724</v>
+        <v>0.02191780249863702</v>
       </c>
     </row>
     <row r="65">
@@ -3373,10 +3373,10 @@
         <v>50</v>
       </c>
       <c r="L65" t="n">
-        <v>2.651094315371482</v>
+        <v>2.651094315371485</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.08875851879387585</v>
+        <v>-0.08875851879387595</v>
       </c>
     </row>
     <row r="66">
@@ -3418,10 +3418,10 @@
         <v>49</v>
       </c>
       <c r="L66" t="n">
-        <v>-1.008115021332946</v>
+        <v>-1.00811502133295</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.5790099250494576</v>
+        <v>-0.5790099250494588</v>
       </c>
     </row>
     <row r="67">
@@ -3463,10 +3463,10 @@
         <v>51</v>
       </c>
       <c r="L67" t="n">
-        <v>4.394997261669757</v>
+        <v>4.394997261669762</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03065282228844948</v>
+        <v>0.03065282228844958</v>
       </c>
     </row>
     <row r="68">
@@ -3508,10 +3508,10 @@
         <v>49</v>
       </c>
       <c r="L68" t="n">
-        <v>2.490846520816958</v>
+        <v>2.490846520816961</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.2507803151159045</v>
+        <v>-0.2507803151159046</v>
       </c>
     </row>
     <row r="69">
@@ -3553,10 +3553,10 @@
         <v>50</v>
       </c>
       <c r="L69" t="n">
-        <v>2.469118945942934</v>
+        <v>2.469118945942936</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.1999079652071523</v>
+        <v>-0.1999079652071525</v>
       </c>
     </row>
     <row r="70">
@@ -3598,10 +3598,10 @@
         <v>53</v>
       </c>
       <c r="L70" t="n">
-        <v>2.965257809722949</v>
+        <v>2.965257809722952</v>
       </c>
       <c r="M70" t="n">
-        <v>0.08442540897667608</v>
+        <v>0.08442540897667584</v>
       </c>
     </row>
     <row r="71">
@@ -3643,10 +3643,10 @@
         <v>51</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9305992884226058</v>
+        <v>0.9305992884226064</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.484244523642013</v>
+        <v>-0.4842445236420134</v>
       </c>
     </row>
     <row r="72">
@@ -3688,10 +3688,10 @@
         <v>65</v>
       </c>
       <c r="L72" t="n">
-        <v>4.082357095329801</v>
+        <v>4.082357095329805</v>
       </c>
       <c r="M72" t="n">
-        <v>2.002996097804669</v>
+        <v>2.002996097804667</v>
       </c>
     </row>
     <row r="73">
@@ -3733,10 +3733,10 @@
         <v>50</v>
       </c>
       <c r="L73" t="n">
-        <v>0.8146056797965057</v>
+        <v>0.8146056797965088</v>
       </c>
       <c r="M73" t="n">
-        <v>-1.171556971947597</v>
+        <v>-1.171556971947595</v>
       </c>
     </row>
     <row r="74">
@@ -3778,10 +3778,10 @@
         <v>45</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.9478039508362098</v>
+        <v>-0.9478039508362101</v>
       </c>
       <c r="M74" t="n">
-        <v>-1.722556328836391</v>
+        <v>-1.722556328836389</v>
       </c>
     </row>
     <row r="75">
@@ -3823,10 +3823,10 @@
         <v>80</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.4459782842026853</v>
+        <v>-0.4459782842026846</v>
       </c>
       <c r="M75" t="n">
-        <v>1.125630122326538</v>
+        <v>1.125630122326535</v>
       </c>
     </row>
     <row r="76">
@@ -3868,10 +3868,10 @@
         <v>48</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.536128325136812</v>
+        <v>-0.5361283251368104</v>
       </c>
       <c r="M76" t="n">
-        <v>-1.657606032413474</v>
+        <v>-1.657606032413472</v>
       </c>
     </row>
     <row r="77">
@@ -3913,10 +3913,10 @@
         <v>46</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.3769309447399586</v>
+        <v>-0.376930944739957</v>
       </c>
       <c r="M77" t="n">
-        <v>-1.648544115361843</v>
+        <v>-1.64854411536184</v>
       </c>
     </row>
     <row r="78">
@@ -3958,10 +3958,10 @@
         <v>45</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.8670539602486073</v>
+        <v>-0.8670539602486076</v>
       </c>
       <c r="M78" t="n">
-        <v>-1.658186781002071</v>
+        <v>-1.658186781002068</v>
       </c>
     </row>
     <row r="79">
@@ -4006,7 +4006,7 @@
         <v>-1.058855404521978</v>
       </c>
       <c r="M79" t="n">
-        <v>-1.688816100254426</v>
+        <v>-1.688816100254424</v>
       </c>
     </row>
     <row r="80">
@@ -4048,10 +4048,10 @@
         <v>52</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03581307034709964</v>
+        <v>0.03581307034710236</v>
       </c>
       <c r="M80" t="n">
-        <v>-1.314593090738447</v>
+        <v>-1.314593090738445</v>
       </c>
     </row>
     <row r="81">
@@ -4093,10 +4093,10 @@
         <v>52</v>
       </c>
       <c r="L81" t="n">
-        <v>0.6884635097629674</v>
+        <v>0.68846350976297</v>
       </c>
       <c r="M81" t="n">
-        <v>-1.040052216178185</v>
+        <v>-1.040052216178184</v>
       </c>
     </row>
     <row r="82">
@@ -4138,10 +4138,10 @@
         <v>45</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.9871738697087395</v>
+        <v>-0.9871738697087398</v>
       </c>
       <c r="M82" t="n">
-        <v>-1.697384058385588</v>
+        <v>-1.697384058385585</v>
       </c>
     </row>
     <row r="83">
@@ -4183,10 +4183,10 @@
         <v>66</v>
       </c>
       <c r="L83" t="n">
-        <v>-1.608337156001109</v>
+        <v>-1.60833715600111</v>
       </c>
       <c r="M83" t="n">
-        <v>0.7645576958581735</v>
+        <v>0.7645576958581692</v>
       </c>
     </row>
     <row r="84">
@@ -4273,7 +4273,7 @@
         <v>46</v>
       </c>
       <c r="L85" t="n">
-        <v>-1.906611013170954</v>
+        <v>-1.906611013170957</v>
       </c>
       <c r="M85" t="n">
         <v>-1.159146340747457</v>
@@ -4318,10 +4318,10 @@
         <v>51</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2881396048418332</v>
+        <v>0.2881396048418335</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.5832145344017418</v>
+        <v>-0.5832145344017425</v>
       </c>
     </row>
     <row r="87">
@@ -4363,10 +4363,10 @@
         <v>52</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3302013621100179</v>
+        <v>0.3302013621100183</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.4061364207178422</v>
+        <v>-0.4061364207178431</v>
       </c>
     </row>
     <row r="88">
@@ -4408,10 +4408,10 @@
         <v>54</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.5444345734692742</v>
+        <v>-0.5444345734692762</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04861147309895465</v>
+        <v>0.04861147309895299</v>
       </c>
     </row>
     <row r="89">
@@ -4453,10 +4453,10 @@
         <v>51</v>
       </c>
       <c r="L89" t="n">
-        <v>4.152878083682458</v>
+        <v>4.152878083682462</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.02628793808648023</v>
+        <v>-0.02628793808647982</v>
       </c>
     </row>
     <row r="90">
@@ -4498,10 +4498,10 @@
         <v>52</v>
       </c>
       <c r="L90" t="n">
-        <v>3.9593344035089</v>
+        <v>3.959334403508906</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.04939285511133847</v>
+        <v>-0.0493928551113382</v>
       </c>
     </row>
     <row r="91">
@@ -4543,10 +4543,10 @@
         <v>75</v>
       </c>
       <c r="L91" t="n">
-        <v>-2.292440854532774</v>
+        <v>-2.292440854532777</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.3769150498840485</v>
+        <v>-0.3769150498840484</v>
       </c>
     </row>
     <row r="92">
@@ -4591,7 +4591,7 @@
         <v>-1.128333021123713</v>
       </c>
       <c r="M92" t="n">
-        <v>-1.570640059654171</v>
+        <v>-1.570640059654168</v>
       </c>
     </row>
     <row r="93">
@@ -4633,10 +4633,10 @@
         <v>45</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.603717579076624</v>
+        <v>-1.603717579076628</v>
       </c>
       <c r="M93" t="n">
-        <v>-1.594333813177389</v>
+        <v>-1.594333813177387</v>
       </c>
     </row>
     <row r="94">
@@ -4681,7 +4681,7 @@
         <v>-0.9359220008466669</v>
       </c>
       <c r="M94" t="n">
-        <v>-1.719972727462172</v>
+        <v>-1.719972727462169</v>
       </c>
     </row>
     <row r="95">
@@ -4723,10 +4723,10 @@
         <v>63</v>
       </c>
       <c r="L95" t="n">
-        <v>-1.323131821559851</v>
+        <v>-1.323131821559852</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.6980426821684665</v>
+        <v>-0.6980426821684658</v>
       </c>
     </row>
     <row r="96">
@@ -4768,10 +4768,10 @@
         <v>45</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.8971989912489504</v>
+        <v>-0.8971989912489508</v>
       </c>
       <c r="M96" t="n">
-        <v>-1.67896928812417</v>
+        <v>-1.678969288124167</v>
       </c>
     </row>
     <row r="97">
@@ -4813,10 +4813,10 @@
         <v>80</v>
       </c>
       <c r="L97" t="n">
-        <v>-2.44586003514161</v>
+        <v>-2.445860035141616</v>
       </c>
       <c r="M97" t="n">
-        <v>5.401554283906727</v>
+        <v>5.401554283906713</v>
       </c>
     </row>
     <row r="98">
@@ -4858,10 +4858,10 @@
         <v>61</v>
       </c>
       <c r="L98" t="n">
-        <v>0.533837683457566</v>
+        <v>0.533837683457568</v>
       </c>
       <c r="M98" t="n">
-        <v>1.05433740956159</v>
+        <v>1.054337409561585</v>
       </c>
     </row>
     <row r="99">
@@ -4903,10 +4903,10 @@
         <v>57</v>
       </c>
       <c r="L99" t="n">
-        <v>-1.805615175762446</v>
+        <v>-1.805615175762451</v>
       </c>
       <c r="M99" t="n">
-        <v>2.721577359774777</v>
+        <v>2.721577359774768</v>
       </c>
     </row>
     <row r="100">
@@ -4951,7 +4951,7 @@
         <v>-1.372950720231942</v>
       </c>
       <c r="M100" t="n">
-        <v>-1.351144501149973</v>
+        <v>-1.351144501149974</v>
       </c>
     </row>
     <row r="101">
@@ -4993,10 +4993,10 @@
         <v>50</v>
       </c>
       <c r="L101" t="n">
-        <v>4.056766889781038</v>
+        <v>4.056766889781041</v>
       </c>
       <c r="M101" t="n">
-        <v>0.1713352973002788</v>
+        <v>0.171335297300279</v>
       </c>
     </row>
     <row r="102">
@@ -5038,10 +5038,10 @@
         <v>53</v>
       </c>
       <c r="L102" t="n">
-        <v>2.915961084688756</v>
+        <v>2.915961084688759</v>
       </c>
       <c r="M102" t="n">
-        <v>0.09888623631026421</v>
+        <v>0.09888623631026448</v>
       </c>
     </row>
     <row r="103">
@@ -5083,10 +5083,10 @@
         <v>50</v>
       </c>
       <c r="L103" t="n">
-        <v>0.44596479039984</v>
+        <v>0.4459647903998401</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.446345783058206</v>
+        <v>-0.4463457830582064</v>
       </c>
     </row>
     <row r="104">
@@ -5128,10 +5128,10 @@
         <v>54</v>
       </c>
       <c r="L104" t="n">
-        <v>5.115268289888123</v>
+        <v>5.115268289888128</v>
       </c>
       <c r="M104" t="n">
-        <v>0.7537868606928566</v>
+        <v>0.7537868606928565</v>
       </c>
     </row>
     <row r="105">
@@ -5173,10 +5173,10 @@
         <v>51</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2409004114556755</v>
+        <v>0.2409004114556761</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.5763433887064167</v>
+        <v>-0.5763433887064177</v>
       </c>
     </row>
     <row r="106">
@@ -5218,10 +5218,10 @@
         <v>47</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3170502070739462</v>
+        <v>0.3170502070739469</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.9519101594278244</v>
+        <v>-0.9519101594278243</v>
       </c>
     </row>
     <row r="107">
@@ -5263,10 +5263,10 @@
         <v>51</v>
       </c>
       <c r="L107" t="n">
-        <v>4.716283688386786</v>
+        <v>4.716283688386793</v>
       </c>
       <c r="M107" t="n">
-        <v>0.1895528032021458</v>
+        <v>0.1895528032021463</v>
       </c>
     </row>
     <row r="108">
@@ -5308,10 +5308,10 @@
         <v>53</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.9624020184072429</v>
+        <v>-0.9624020184072436</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.8151081467692245</v>
+        <v>-0.8151081467692237</v>
       </c>
     </row>
     <row r="109">
@@ -5353,10 +5353,10 @@
         <v>83</v>
       </c>
       <c r="L109" t="n">
-        <v>-1.684798218217899</v>
+        <v>-1.684798218217901</v>
       </c>
       <c r="M109" t="n">
-        <v>0.5649149791298256</v>
+        <v>0.5649149791298242</v>
       </c>
     </row>
     <row r="110">
@@ -5398,10 +5398,10 @@
         <v>50</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.478597464663843</v>
+        <v>-0.4785974646638443</v>
       </c>
       <c r="M110" t="n">
-        <v>-0.1673808042404954</v>
+        <v>-0.1673808042404989</v>
       </c>
     </row>
     <row r="111">
@@ -5443,10 +5443,10 @@
         <v>61</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.1785121644180737</v>
+        <v>-0.1785121644180733</v>
       </c>
       <c r="M111" t="n">
-        <v>0.886551460085837</v>
+        <v>0.8865514600858314</v>
       </c>
     </row>
     <row r="112">
@@ -5488,10 +5488,10 @@
         <v>73</v>
       </c>
       <c r="L112" t="n">
-        <v>-1.963206539807974</v>
+        <v>-1.963206539807977</v>
       </c>
       <c r="M112" t="n">
-        <v>4.158695483080855</v>
+        <v>4.158695483080844</v>
       </c>
     </row>
     <row r="113">
@@ -5533,10 +5533,10 @@
         <v>65</v>
       </c>
       <c r="L113" t="n">
-        <v>-1.406702435378072</v>
+        <v>-1.406702435378075</v>
       </c>
       <c r="M113" t="n">
-        <v>3.52337231991029</v>
+        <v>3.52337231991028</v>
       </c>
     </row>
     <row r="114">
@@ -5578,10 +5578,10 @@
         <v>54</v>
       </c>
       <c r="L114" t="n">
-        <v>3.003940186672782</v>
+        <v>3.003940186672784</v>
       </c>
       <c r="M114" t="n">
-        <v>0.3567404042006238</v>
+        <v>0.3567404042006231</v>
       </c>
     </row>
     <row r="115">
@@ -5623,10 +5623,10 @@
         <v>52</v>
       </c>
       <c r="L115" t="n">
-        <v>0.4005718097810637</v>
+        <v>0.4005718097810636</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.3531280658069517</v>
+        <v>-0.3531280658069523</v>
       </c>
     </row>
     <row r="116">
@@ -5668,10 +5668,10 @@
         <v>52</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2530488025996534</v>
+        <v>0.253048802599654</v>
       </c>
       <c r="M116" t="n">
-        <v>-0.3236242225498898</v>
+        <v>-0.3236242225498906</v>
       </c>
     </row>
     <row r="117">
@@ -5713,10 +5713,10 @@
         <v>51</v>
       </c>
       <c r="L117" t="n">
-        <v>0.4045223630883019</v>
+        <v>0.4045223630883023</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.7274706203490319</v>
+        <v>-0.7274706203490321</v>
       </c>
     </row>
     <row r="118">
@@ -5758,10 +5758,10 @@
         <v>82</v>
       </c>
       <c r="L118" t="n">
-        <v>-1.062052842438313</v>
+        <v>-1.062052842438315</v>
       </c>
       <c r="M118" t="n">
-        <v>1.317413250869828</v>
+        <v>1.317413250869826</v>
       </c>
     </row>
     <row r="119">
@@ -5803,10 +5803,10 @@
         <v>49</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.6923397351107351</v>
+        <v>-0.6923397351107354</v>
       </c>
       <c r="M119" t="n">
-        <v>-1.15843198688633</v>
+        <v>-1.158431986886328</v>
       </c>
     </row>
     <row r="120">
@@ -5848,10 +5848,10 @@
         <v>50</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.9079085568960974</v>
+        <v>-0.9079085568960982</v>
       </c>
       <c r="M120" t="n">
-        <v>-1.121586807315057</v>
+        <v>-1.121586807315055</v>
       </c>
     </row>
     <row r="121">
@@ -5893,10 +5893,10 @@
         <v>49</v>
       </c>
       <c r="L121" t="n">
-        <v>1.421131014805189</v>
+        <v>1.421131014805193</v>
       </c>
       <c r="M121" t="n">
-        <v>-1.174633083648258</v>
+        <v>-1.174633083648255</v>
       </c>
     </row>
     <row r="122">
@@ -5941,7 +5941,7 @@
         <v>-1.213988452669139</v>
       </c>
       <c r="M122" t="n">
-        <v>-0.1360683856608608</v>
+        <v>-0.1360683856608614</v>
       </c>
     </row>
     <row r="123">
@@ -5983,10 +5983,10 @@
         <v>48</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.2125990328106665</v>
+        <v>-0.2125990328106647</v>
       </c>
       <c r="M123" t="n">
-        <v>-1.442423752311697</v>
+        <v>-1.442423752311694</v>
       </c>
     </row>
     <row r="124">
@@ -6028,10 +6028,10 @@
         <v>64</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.7455158942430532</v>
+        <v>-0.745515894243054</v>
       </c>
       <c r="M124" t="n">
-        <v>-0.7200269335523065</v>
+        <v>-0.7200269335523057</v>
       </c>
     </row>
     <row r="125">
@@ -6073,10 +6073,10 @@
         <v>50</v>
       </c>
       <c r="L125" t="n">
-        <v>0.289875664952796</v>
+        <v>0.2898756649527987</v>
       </c>
       <c r="M125" t="n">
-        <v>-1.392270060980951</v>
+        <v>-1.392270060980949</v>
       </c>
     </row>
     <row r="126">
@@ -6118,10 +6118,10 @@
         <v>57</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.8126885347961643</v>
+        <v>-0.8126885347961659</v>
       </c>
       <c r="M126" t="n">
-        <v>0.8294462204319486</v>
+        <v>0.8294462204319434</v>
       </c>
     </row>
     <row r="127">
@@ -6166,7 +6166,7 @@
         <v>-1.053003821893328</v>
       </c>
       <c r="M127" t="n">
-        <v>3.025572894236542</v>
+        <v>3.025572894236532</v>
       </c>
     </row>
     <row r="128">
@@ -6208,10 +6208,10 @@
         <v>63</v>
       </c>
       <c r="L128" t="n">
-        <v>-1.343963890178518</v>
+        <v>-1.343963890178521</v>
       </c>
       <c r="M128" t="n">
-        <v>3.25140616626074</v>
+        <v>3.251406166260731</v>
       </c>
     </row>
     <row r="129">
@@ -6253,10 +6253,10 @@
         <v>67</v>
       </c>
       <c r="L129" t="n">
-        <v>-2.087244140295681</v>
+        <v>-2.087244140295683</v>
       </c>
       <c r="M129" t="n">
-        <v>0.8562999807083312</v>
+        <v>0.8562999807083272</v>
       </c>
     </row>
     <row r="130">
@@ -6298,10 +6298,10 @@
         <v>54</v>
       </c>
       <c r="L130" t="n">
-        <v>3.588810337349258</v>
+        <v>3.588810337349262</v>
       </c>
       <c r="M130" t="n">
-        <v>0.2490282386331705</v>
+        <v>0.2490282386331708</v>
       </c>
     </row>
     <row r="131">
@@ -6343,10 +6343,10 @@
         <v>55</v>
       </c>
       <c r="L131" t="n">
-        <v>3.948681606725552</v>
+        <v>3.948681606725557</v>
       </c>
       <c r="M131" t="n">
-        <v>0.02748566152071746</v>
+        <v>0.0274856615207177</v>
       </c>
     </row>
     <row r="132">
@@ -6388,7 +6388,7 @@
         <v>51</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3845490851481071</v>
+        <v>0.3845490851481076</v>
       </c>
       <c r="M132" t="n">
         <v>-0.7081607242333742</v>
@@ -6433,10 +6433,10 @@
         <v>60</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.4079867349813454</v>
+        <v>-0.4079867349813475</v>
       </c>
       <c r="M133" t="n">
-        <v>0.6556067327002434</v>
+        <v>0.6556067327002405</v>
       </c>
     </row>
     <row r="134">
@@ -6478,10 +6478,10 @@
         <v>54</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1356905516266546</v>
+        <v>0.1356905516266549</v>
       </c>
       <c r="M134" t="n">
-        <v>-0.2327120445436094</v>
+        <v>-0.2327120445436104</v>
       </c>
     </row>
     <row r="135">
@@ -6523,10 +6523,10 @@
         <v>72</v>
       </c>
       <c r="L135" t="n">
-        <v>1.429068538778341</v>
+        <v>1.429068538778343</v>
       </c>
       <c r="M135" t="n">
-        <v>1.686503271937899</v>
+        <v>1.686503271937898</v>
       </c>
     </row>
     <row r="136">
@@ -6568,10 +6568,10 @@
         <v>45</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.933715874639688</v>
+        <v>-0.9337158746396884</v>
       </c>
       <c r="M136" t="n">
-        <v>-1.733534218524973</v>
+        <v>-1.73353421852497</v>
       </c>
     </row>
     <row r="137">
@@ -6613,10 +6613,10 @@
         <v>74</v>
       </c>
       <c r="L137" t="n">
-        <v>-1.060979301361272</v>
+        <v>-1.060979301361274</v>
       </c>
       <c r="M137" t="n">
-        <v>2.038425301040963</v>
+        <v>2.038425301040959</v>
       </c>
     </row>
     <row r="138">
@@ -6658,10 +6658,10 @@
         <v>76</v>
       </c>
       <c r="L138" t="n">
-        <v>4.108802983603586</v>
+        <v>4.108802983603592</v>
       </c>
       <c r="M138" t="n">
-        <v>2.629620540157324</v>
+        <v>2.62962054015732</v>
       </c>
     </row>
     <row r="139">
@@ -6703,10 +6703,10 @@
         <v>67</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.6298069644837454</v>
+        <v>-0.6298069644837474</v>
       </c>
       <c r="M139" t="n">
-        <v>1.373682852432478</v>
+        <v>1.373682852432475</v>
       </c>
     </row>
     <row r="140">
@@ -6748,10 +6748,10 @@
         <v>82</v>
       </c>
       <c r="L140" t="n">
-        <v>-2.187437211652691</v>
+        <v>-2.187437211652695</v>
       </c>
       <c r="M140" t="n">
-        <v>0.5398457403855871</v>
+        <v>0.5398457403855862</v>
       </c>
     </row>
     <row r="141">
@@ -6793,10 +6793,10 @@
         <v>48</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.9671887708249428</v>
+        <v>-0.9671887708249436</v>
       </c>
       <c r="M141" t="n">
-        <v>-1.42129003627547</v>
+        <v>-1.421290036275468</v>
       </c>
     </row>
     <row r="142">
@@ -6838,10 +6838,10 @@
         <v>47</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.138870935288418</v>
+        <v>-0.1388709352884163</v>
       </c>
       <c r="M142" t="n">
-        <v>-1.423033830922589</v>
+        <v>-1.423033830922586</v>
       </c>
     </row>
     <row r="143">
@@ -6883,10 +6883,10 @@
         <v>47</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.7607276132723078</v>
+        <v>-0.7607276132723084</v>
       </c>
       <c r="M143" t="n">
-        <v>-1.366904124806754</v>
+        <v>-1.366904124806751</v>
       </c>
     </row>
     <row r="144">
@@ -6928,10 +6928,10 @@
         <v>74</v>
       </c>
       <c r="L144" t="n">
-        <v>-1.372261754851218</v>
+        <v>-1.372261754851219</v>
       </c>
       <c r="M144" t="n">
-        <v>0.2067716241764865</v>
+        <v>0.2067716241764861</v>
       </c>
     </row>
     <row r="145">
@@ -6973,10 +6973,10 @@
         <v>82</v>
       </c>
       <c r="L145" t="n">
-        <v>-2.888341869720191</v>
+        <v>-2.888341869720196</v>
       </c>
       <c r="M145" t="n">
-        <v>2.279857075206438</v>
+        <v>2.279857075206434</v>
       </c>
     </row>
     <row r="146">
@@ -7018,10 +7018,10 @@
         <v>50</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.6684244476063713</v>
+        <v>-0.6684244476063727</v>
       </c>
       <c r="M146" t="n">
-        <v>-0.3079951741503795</v>
+        <v>-0.3079951741503821</v>
       </c>
     </row>
     <row r="147">
@@ -7063,10 +7063,10 @@
         <v>63</v>
       </c>
       <c r="L147" t="n">
-        <v>0.9639434591371827</v>
+        <v>0.9639434591371858</v>
       </c>
       <c r="M147" t="n">
-        <v>1.292875493857945</v>
+        <v>1.29287549385794</v>
       </c>
     </row>
     <row r="148">
@@ -7111,7 +7111,7 @@
         <v>-1.056627306275671</v>
       </c>
       <c r="M148" t="n">
-        <v>2.635059912315904</v>
+        <v>2.635059912315895</v>
       </c>
     </row>
     <row r="149">
@@ -7153,10 +7153,10 @@
         <v>54</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.7912147671080064</v>
+        <v>-0.7912147671080048</v>
       </c>
       <c r="M149" t="n">
-        <v>-0.6184021426276255</v>
+        <v>-0.6184021426276269</v>
       </c>
     </row>
     <row r="150">
@@ -7198,10 +7198,10 @@
         <v>51</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.2947848951651707</v>
+        <v>-0.2947848951651725</v>
       </c>
       <c r="M150" t="n">
-        <v>-0.3809531332146252</v>
+        <v>-0.3809531332146257</v>
       </c>
     </row>
     <row r="151">
@@ -7243,10 +7243,10 @@
         <v>59</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.5369020188858671</v>
+        <v>-0.5369020188858692</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3525573384086034</v>
+        <v>0.3525573384086015</v>
       </c>
     </row>
     <row r="152">
@@ -7288,10 +7288,10 @@
         <v>59</v>
       </c>
       <c r="L152" t="n">
-        <v>2.425927972013354</v>
+        <v>2.425927972013356</v>
       </c>
       <c r="M152" t="n">
-        <v>0.7803787574795441</v>
+        <v>0.7803787574795429</v>
       </c>
     </row>
     <row r="153">
@@ -7333,10 +7333,10 @@
         <v>84</v>
       </c>
       <c r="L153" t="n">
-        <v>-2.214099672706737</v>
+        <v>-2.214099672706744</v>
       </c>
       <c r="M153" t="n">
-        <v>5.295558571351293</v>
+        <v>5.295558571351283</v>
       </c>
     </row>
     <row r="154">
@@ -7378,10 +7378,10 @@
         <v>46</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.8440735582806135</v>
+        <v>-0.8440735582806139</v>
       </c>
       <c r="M154" t="n">
-        <v>-1.546042572838048</v>
+        <v>-1.546042572838045</v>
       </c>
     </row>
     <row r="155">
@@ -7423,10 +7423,10 @@
         <v>73</v>
       </c>
       <c r="L155" t="n">
-        <v>-1.604640104437122</v>
+        <v>-1.604640104437124</v>
       </c>
       <c r="M155" t="n">
-        <v>0.4246725432764539</v>
+        <v>0.4246725432764531</v>
       </c>
     </row>
     <row r="156">
@@ -7468,10 +7468,10 @@
         <v>50</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09759118519472745</v>
+        <v>0.09759118519472869</v>
       </c>
       <c r="M156" t="n">
-        <v>-0.2050905951283386</v>
+        <v>-0.2050905951283413</v>
       </c>
     </row>
     <row r="157">
@@ -7513,10 +7513,10 @@
         <v>51</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.1629761462392031</v>
+        <v>-0.1629761462392021</v>
       </c>
       <c r="M157" t="n">
-        <v>-0.2076785086286929</v>
+        <v>-0.2076785086286959</v>
       </c>
     </row>
     <row r="158">
@@ -7606,7 +7606,7 @@
         <v>-1.218547401689056</v>
       </c>
       <c r="M159" t="n">
-        <v>-1.100474321898463</v>
+        <v>-1.100474321898464</v>
       </c>
     </row>
     <row r="160">
@@ -7648,10 +7648,10 @@
         <v>63</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.9713468107126402</v>
+        <v>-0.9713468107126377</v>
       </c>
       <c r="M160" t="n">
-        <v>0.05964081910141883</v>
+        <v>0.05964081910141604</v>
       </c>
     </row>
     <row r="161">
@@ -7693,10 +7693,10 @@
         <v>62</v>
       </c>
       <c r="L161" t="n">
-        <v>4.301768668739243</v>
+        <v>4.301768668739245</v>
       </c>
       <c r="M161" t="n">
-        <v>1.721545308223245</v>
+        <v>1.721545308223242</v>
       </c>
     </row>
     <row r="162">
@@ -7738,10 +7738,10 @@
         <v>50</v>
       </c>
       <c r="L162" t="n">
-        <v>1.374632320587855</v>
+        <v>1.374632320587856</v>
       </c>
       <c r="M162" t="n">
-        <v>-0.5704927456835039</v>
+        <v>-0.5704927456835034</v>
       </c>
     </row>
     <row r="163">
@@ -7783,10 +7783,10 @@
         <v>52</v>
       </c>
       <c r="L163" t="n">
-        <v>2.514473579170283</v>
+        <v>2.514473579170286</v>
       </c>
       <c r="M163" t="n">
-        <v>0.03558634926510675</v>
+        <v>0.03558634926510713</v>
       </c>
     </row>
     <row r="164">
@@ -7828,10 +7828,10 @@
         <v>48</v>
       </c>
       <c r="L164" t="n">
-        <v>0.3526002791103401</v>
+        <v>0.3526002791103408</v>
       </c>
       <c r="M164" t="n">
-        <v>-0.8622134839789027</v>
+        <v>-0.8622134839789024</v>
       </c>
     </row>
     <row r="165">
@@ -7873,10 +7873,10 @@
         <v>48</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.1344671441433687</v>
+        <v>-0.1344671441433672</v>
       </c>
       <c r="M165" t="n">
-        <v>-1.400874562919931</v>
+        <v>-1.400874562919929</v>
       </c>
     </row>
     <row r="166">
@@ -7918,10 +7918,10 @@
         <v>47</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.1887277622302903</v>
+        <v>-0.1887277622302885</v>
       </c>
       <c r="M166" t="n">
-        <v>-1.491111758062468</v>
+        <v>-1.491111758062466</v>
       </c>
     </row>
     <row r="167">
@@ -7963,10 +7963,10 @@
         <v>71</v>
       </c>
       <c r="L167" t="n">
-        <v>-1.675810745813533</v>
+        <v>-1.675810745813535</v>
       </c>
       <c r="M167" t="n">
-        <v>0.2432094181993436</v>
+        <v>0.2432094181993435</v>
       </c>
     </row>
     <row r="168">
@@ -8008,7 +8008,7 @@
         <v>81</v>
       </c>
       <c r="L168" t="n">
-        <v>-1.813557311623655</v>
+        <v>-1.813557311623657</v>
       </c>
       <c r="M168" t="n">
         <v>0.1804599611735855</v>
@@ -8053,10 +8053,10 @@
         <v>51</v>
       </c>
       <c r="L169" t="n">
-        <v>1.720520905642506</v>
+        <v>1.72052090564251</v>
       </c>
       <c r="M169" t="n">
-        <v>-0.9393154304546883</v>
+        <v>-0.939315430454685</v>
       </c>
     </row>
     <row r="170">
@@ -8098,10 +8098,10 @@
         <v>48</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.6252762026653964</v>
+        <v>-0.6252762026653977</v>
       </c>
       <c r="M170" t="n">
-        <v>-0.3995655919339578</v>
+        <v>-0.3995655919339602</v>
       </c>
     </row>
     <row r="171">
@@ -8143,10 +8143,10 @@
         <v>49</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.5739683305654895</v>
+        <v>-0.5739683305654906</v>
       </c>
       <c r="M171" t="n">
-        <v>-0.3276748239213413</v>
+        <v>-0.3276748239213439</v>
       </c>
     </row>
     <row r="172">
@@ -8188,10 +8188,10 @@
         <v>84</v>
       </c>
       <c r="L172" t="n">
-        <v>-1.531893233691075</v>
+        <v>-1.531893233691078</v>
       </c>
       <c r="M172" t="n">
-        <v>3.08082269338679</v>
+        <v>3.080822693386782</v>
       </c>
     </row>
     <row r="173">
@@ -8233,10 +8233,10 @@
         <v>60</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.7585543590141366</v>
+        <v>-0.7585543590141348</v>
       </c>
       <c r="M173" t="n">
-        <v>-0.21801465031124</v>
+        <v>-0.2180146503112415</v>
       </c>
     </row>
     <row r="174">
@@ -8278,10 +8278,10 @@
         <v>64</v>
       </c>
       <c r="L174" t="n">
-        <v>4.690830852381958</v>
+        <v>4.690830852381962</v>
       </c>
       <c r="M174" t="n">
-        <v>1.510177060404155</v>
+        <v>1.510177060404153</v>
       </c>
     </row>
     <row r="175">
@@ -8323,10 +8323,10 @@
         <v>79</v>
       </c>
       <c r="L175" t="n">
-        <v>-2.101162830326877</v>
+        <v>-2.101162830326883</v>
       </c>
       <c r="M175" t="n">
-        <v>4.996427067886378</v>
+        <v>4.996427067886368</v>
       </c>
     </row>
     <row r="176">
@@ -8368,10 +8368,10 @@
         <v>76</v>
       </c>
       <c r="L176" t="n">
-        <v>-1.358761366586733</v>
+        <v>-1.358761366586739</v>
       </c>
       <c r="M176" t="n">
-        <v>1.38095624161225</v>
+        <v>1.380956241612247</v>
       </c>
     </row>
     <row r="177">
@@ -8413,10 +8413,10 @@
         <v>51</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2057408758755216</v>
+        <v>0.2057408758755242</v>
       </c>
       <c r="M177" t="n">
-        <v>-1.266234885383825</v>
+        <v>-1.266234885383822</v>
       </c>
     </row>
     <row r="178">
@@ -8458,10 +8458,10 @@
         <v>51</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.7112593501599704</v>
+        <v>-0.7112593501599712</v>
       </c>
       <c r="M178" t="n">
-        <v>-0.9422734494129784</v>
+        <v>-0.9422734494129767</v>
       </c>
     </row>
     <row r="179">
@@ -8503,10 +8503,10 @@
         <v>76</v>
       </c>
       <c r="L179" t="n">
-        <v>-1.751995369505539</v>
+        <v>-1.75199536950554</v>
       </c>
       <c r="M179" t="n">
-        <v>-0.04343381171260099</v>
+        <v>-0.04343381171260076</v>
       </c>
     </row>
     <row r="180">
@@ -8548,10 +8548,10 @@
         <v>49</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.7201926469524905</v>
+        <v>-0.7201926469524916</v>
       </c>
       <c r="M180" t="n">
-        <v>-0.4408460908956129</v>
+        <v>-0.4408460908956148</v>
       </c>
     </row>
     <row r="181">
@@ -8593,10 +8593,10 @@
         <v>54</v>
       </c>
       <c r="L181" t="n">
-        <v>-1.411210623824891</v>
+        <v>-1.411210623824892</v>
       </c>
       <c r="M181" t="n">
-        <v>-0.6207481469444802</v>
+        <v>-0.6207481469444812</v>
       </c>
     </row>
     <row r="182">
@@ -8641,7 +8641,7 @@
         <v>-1.797273658579169</v>
       </c>
       <c r="M182" t="n">
-        <v>0.5161383933140273</v>
+        <v>0.5161383933140246</v>
       </c>
     </row>
     <row r="183">
@@ -8683,10 +8683,10 @@
         <v>70</v>
       </c>
       <c r="L183" t="n">
-        <v>-2.144221412466657</v>
+        <v>-2.144221412466658</v>
       </c>
       <c r="M183" t="n">
-        <v>0.9606145833913887</v>
+        <v>0.9606145833913857</v>
       </c>
     </row>
     <row r="184">
@@ -8728,10 +8728,10 @@
         <v>53</v>
       </c>
       <c r="L184" t="n">
-        <v>0.5089507742741454</v>
+        <v>0.5089507742741461</v>
       </c>
       <c r="M184" t="n">
-        <v>-0.3050437781008452</v>
+        <v>-0.3050437781008453</v>
       </c>
     </row>
     <row r="185">
@@ -8773,10 +8773,10 @@
         <v>49</v>
       </c>
       <c r="L185" t="n">
-        <v>0.5281032194230956</v>
+        <v>0.5281032194230963</v>
       </c>
       <c r="M185" t="n">
-        <v>-0.6131182559900591</v>
+        <v>-0.6131182559900584</v>
       </c>
     </row>
     <row r="186">
@@ -8818,10 +8818,10 @@
         <v>83</v>
       </c>
       <c r="L186" t="n">
-        <v>-2.119794133927455</v>
+        <v>-2.11979413392746</v>
       </c>
       <c r="M186" t="n">
-        <v>4.828219837686372</v>
+        <v>4.828219837686361</v>
       </c>
     </row>
     <row r="187">
@@ -8863,10 +8863,10 @@
         <v>49</v>
       </c>
       <c r="L187" t="n">
-        <v>0.8367351070859409</v>
+        <v>0.8367351070859417</v>
       </c>
       <c r="M187" t="n">
-        <v>-0.6066455056218688</v>
+        <v>-0.6066455056218678</v>
       </c>
     </row>
     <row r="188">
@@ -8908,10 +8908,10 @@
         <v>50</v>
       </c>
       <c r="L188" t="n">
-        <v>2.880821445643586</v>
+        <v>2.880821445643589</v>
       </c>
       <c r="M188" t="n">
-        <v>-0.2797365134711958</v>
+        <v>-0.2797365134711941</v>
       </c>
     </row>
     <row r="189">
@@ -8953,10 +8953,10 @@
         <v>79</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.9525192269157641</v>
+        <v>-0.9525192269157656</v>
       </c>
       <c r="M189" t="n">
-        <v>1.190506651144927</v>
+        <v>1.190506651144926</v>
       </c>
     </row>
     <row r="190">
@@ -8998,10 +8998,10 @@
         <v>63</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.6615031015157321</v>
+        <v>-0.6615031015157333</v>
       </c>
       <c r="M190" t="n">
-        <v>0.702451342206224</v>
+        <v>0.7024513422062233</v>
       </c>
     </row>
     <row r="191">
@@ -9043,10 +9043,10 @@
         <v>81</v>
       </c>
       <c r="L191" t="n">
-        <v>-1.660125342889705</v>
+        <v>-1.660125342889709</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3003999357610118</v>
+        <v>0.3003999357610119</v>
       </c>
     </row>
     <row r="192">
@@ -9088,10 +9088,10 @@
         <v>82</v>
       </c>
       <c r="L192" t="n">
-        <v>-2.117159039656726</v>
+        <v>-2.117159039656727</v>
       </c>
       <c r="M192" t="n">
-        <v>1.453053321161848</v>
+        <v>1.453053321161846</v>
       </c>
     </row>
     <row r="193">
@@ -9133,10 +9133,10 @@
         <v>64</v>
       </c>
       <c r="L193" t="n">
-        <v>-1.285373788412847</v>
+        <v>-1.285373788412849</v>
       </c>
       <c r="M193" t="n">
-        <v>1.041938355464297</v>
+        <v>1.041938355464293</v>
       </c>
     </row>
     <row r="194">
@@ -9181,7 +9181,7 @@
         <v>-1.320953289041831</v>
       </c>
       <c r="M194" t="n">
-        <v>-1.053498413465677</v>
+        <v>-1.053498413465678</v>
       </c>
     </row>
     <row r="195">
@@ -9223,10 +9223,10 @@
         <v>75</v>
       </c>
       <c r="L195" t="n">
-        <v>-1.182770347856268</v>
+        <v>-1.182770347856267</v>
       </c>
       <c r="M195" t="n">
-        <v>1.310173815739205</v>
+        <v>1.310173815739201</v>
       </c>
     </row>
     <row r="196">
@@ -9268,10 +9268,10 @@
         <v>58</v>
       </c>
       <c r="L196" t="n">
-        <v>-1.369837825150356</v>
+        <v>-1.369837825150357</v>
       </c>
       <c r="M196" t="n">
-        <v>-0.5635528316152688</v>
+        <v>-0.5635528316152697</v>
       </c>
     </row>
     <row r="197">
@@ -9313,10 +9313,10 @@
         <v>67</v>
       </c>
       <c r="L197" t="n">
-        <v>-1.243756944433863</v>
+        <v>-1.243756944433861</v>
       </c>
       <c r="M197" t="n">
-        <v>0.7124234647313363</v>
+        <v>0.7124234647313332</v>
       </c>
     </row>
     <row r="198">
@@ -9358,10 +9358,10 @@
         <v>51</v>
       </c>
       <c r="L198" t="n">
-        <v>2.783780009190276</v>
+        <v>2.783780009190278</v>
       </c>
       <c r="M198" t="n">
-        <v>0.05638959401333984</v>
+        <v>0.05638959401334083</v>
       </c>
     </row>
     <row r="199">
@@ -9403,10 +9403,10 @@
         <v>61</v>
       </c>
       <c r="L199" t="n">
-        <v>4.655948680056111</v>
+        <v>4.655948680056115</v>
       </c>
       <c r="M199" t="n">
-        <v>1.554440481946526</v>
+        <v>1.554440481946525</v>
       </c>
     </row>
     <row r="200">
@@ -9448,10 +9448,10 @@
         <v>55</v>
       </c>
       <c r="L200" t="n">
-        <v>2.870687488575557</v>
+        <v>2.870687488575559</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3456976408493017</v>
+        <v>0.345697640849302</v>
       </c>
     </row>
     <row r="201">
@@ -9493,10 +9493,10 @@
         <v>50</v>
       </c>
       <c r="L201" t="n">
-        <v>4.075787629044643</v>
+        <v>4.075787629044646</v>
       </c>
       <c r="M201" t="n">
-        <v>0.04543535796150148</v>
+        <v>0.04543535796150235</v>
       </c>
     </row>
     <row r="202">
@@ -9538,10 +9538,10 @@
         <v>58</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.1704194588069455</v>
+        <v>-0.1704194588069476</v>
       </c>
       <c r="M202" t="n">
-        <v>0.4603435652611644</v>
+        <v>0.4603435652611629</v>
       </c>
     </row>
     <row r="203">
@@ -9583,10 +9583,10 @@
         <v>50</v>
       </c>
       <c r="L203" t="n">
-        <v>0.6310851465250548</v>
+        <v>0.6310851465250554</v>
       </c>
       <c r="M203" t="n">
-        <v>-0.5668989143091846</v>
+        <v>-0.5668989143091839</v>
       </c>
     </row>
     <row r="204">
@@ -9628,10 +9628,10 @@
         <v>49</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.2028699921823332</v>
+        <v>-0.2028699921823348</v>
       </c>
       <c r="M204" t="n">
-        <v>-0.6238500756894426</v>
+        <v>-0.6238500756894424</v>
       </c>
     </row>
     <row r="205">
@@ -9673,10 +9673,10 @@
         <v>53</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3792908219326329</v>
+        <v>0.3792908219326334</v>
       </c>
       <c r="M205" t="n">
-        <v>-0.3514440722643867</v>
+        <v>-0.3514440722643866</v>
       </c>
     </row>
     <row r="206">
@@ -9721,7 +9721,7 @@
         <v>4.389815011339613</v>
       </c>
       <c r="M206" t="n">
-        <v>2.762873172870155</v>
+        <v>2.762873172870151</v>
       </c>
     </row>
     <row r="207">
@@ -9763,10 +9763,10 @@
         <v>70</v>
       </c>
       <c r="L207" t="n">
-        <v>-1.139566521901763</v>
+        <v>-1.139566521901766</v>
       </c>
       <c r="M207" t="n">
-        <v>3.610171089759602</v>
+        <v>3.610171089759595</v>
       </c>
     </row>
     <row r="208">
@@ -9808,10 +9808,10 @@
         <v>54</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2162292802734473</v>
+        <v>0.2162292802734478</v>
       </c>
       <c r="M208" t="n">
-        <v>-0.2027137979893591</v>
+        <v>-0.2027137979893594</v>
       </c>
     </row>
     <row r="209">
@@ -9853,10 +9853,10 @@
         <v>45</v>
       </c>
       <c r="L209" t="n">
-        <v>-1.012632772454565</v>
+        <v>-1.012632772454566</v>
       </c>
       <c r="M209" t="n">
-        <v>-1.681147614587199</v>
+        <v>-1.681147614587195</v>
       </c>
     </row>
     <row r="210">
@@ -9898,10 +9898,10 @@
         <v>80</v>
       </c>
       <c r="L210" t="n">
-        <v>-2.34073675464507</v>
+        <v>-2.340736754645074</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2643170795886121</v>
+        <v>0.2643170795886122</v>
       </c>
     </row>
     <row r="211">
@@ -9943,10 +9943,10 @@
         <v>64</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.340806691379743</v>
+        <v>-0.3408066913797425</v>
       </c>
       <c r="M211" t="n">
-        <v>1.33033871827884</v>
+        <v>1.330338718278835</v>
       </c>
     </row>
     <row r="212">
@@ -9988,10 +9988,10 @@
         <v>63</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.3314802844440692</v>
+        <v>-0.3314802844440684</v>
       </c>
       <c r="M212" t="n">
-        <v>0.6188593043195914</v>
+        <v>0.6188593043195876</v>
       </c>
     </row>
     <row r="213">
@@ -10033,10 +10033,10 @@
         <v>48</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2833259501546429</v>
+        <v>0.2833259501546441</v>
       </c>
       <c r="M213" t="n">
-        <v>-0.1997033692665371</v>
+        <v>-0.1997033692665392</v>
       </c>
     </row>
     <row r="214">
@@ -10078,10 +10078,10 @@
         <v>68</v>
       </c>
       <c r="L214" t="n">
-        <v>-2.144678670107484</v>
+        <v>-2.14467867010749</v>
       </c>
       <c r="M214" t="n">
-        <v>4.075352914914044</v>
+        <v>4.075352914914034</v>
       </c>
     </row>
     <row r="215">
@@ -10126,7 +10126,7 @@
         <v>-1.444243226275432</v>
       </c>
       <c r="M215" t="n">
-        <v>-1.38634275481794</v>
+        <v>-1.386342754817939</v>
       </c>
     </row>
     <row r="216">
@@ -10168,10 +10168,10 @@
         <v>45</v>
       </c>
       <c r="L216" t="n">
-        <v>-1.467169362907611</v>
+        <v>-1.467169362907612</v>
       </c>
       <c r="M216" t="n">
-        <v>-1.402406683459942</v>
+        <v>-1.402406683459941</v>
       </c>
     </row>
     <row r="217">
@@ -10213,10 +10213,10 @@
         <v>49</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2962689467334961</v>
+        <v>0.2962689467334967</v>
       </c>
       <c r="M217" t="n">
-        <v>-0.5559910851087458</v>
+        <v>-0.5559910851087453</v>
       </c>
     </row>
     <row r="218">
@@ -10258,10 +10258,10 @@
         <v>64</v>
       </c>
       <c r="L218" t="n">
-        <v>0.9971743495703143</v>
+        <v>0.9971743495703149</v>
       </c>
       <c r="M218" t="n">
-        <v>0.8470928665677463</v>
+        <v>0.8470928665677441</v>
       </c>
     </row>
     <row r="219">
@@ -10303,10 +10303,10 @@
         <v>49</v>
       </c>
       <c r="L219" t="n">
-        <v>1.769917239290646</v>
+        <v>1.769917239290648</v>
       </c>
       <c r="M219" t="n">
-        <v>-0.4326802835837769</v>
+        <v>-0.4326802835837748</v>
       </c>
     </row>
     <row r="220">
@@ -10348,10 +10348,10 @@
         <v>50</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.3035722605161281</v>
+        <v>-0.3035722605161297</v>
       </c>
       <c r="M220" t="n">
-        <v>-0.7135002409876213</v>
+        <v>-0.7135002409876205</v>
       </c>
     </row>
     <row r="221">
@@ -10393,10 +10393,10 @@
         <v>50</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.1951263127234705</v>
+        <v>-0.1951263127234721</v>
       </c>
       <c r="M221" t="n">
-        <v>-0.3605742038795363</v>
+        <v>-0.3605742038795359</v>
       </c>
     </row>
     <row r="222">
@@ -10438,10 +10438,10 @@
         <v>66</v>
       </c>
       <c r="L222" t="n">
-        <v>-1.242786523964754</v>
+        <v>-1.242786523964755</v>
       </c>
       <c r="M222" t="n">
-        <v>-0.2261978186846672</v>
+        <v>-0.2261978186846662</v>
       </c>
     </row>
     <row r="223">
@@ -10483,10 +10483,10 @@
         <v>78</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.7084481027545115</v>
+        <v>-0.7084481027545111</v>
       </c>
       <c r="M223" t="n">
-        <v>1.356044230456607</v>
+        <v>1.356044230456605</v>
       </c>
     </row>
     <row r="224">
@@ -10528,10 +10528,10 @@
         <v>71</v>
       </c>
       <c r="L224" t="n">
-        <v>-2.116329412010877</v>
+        <v>-2.116329412010881</v>
       </c>
       <c r="M224" t="n">
-        <v>-0.2785656749500743</v>
+        <v>-0.278565674950073</v>
       </c>
     </row>
     <row r="225">
@@ -10573,10 +10573,10 @@
         <v>79</v>
       </c>
       <c r="L225" t="n">
-        <v>-1.735705408122892</v>
+        <v>-1.735705408122893</v>
       </c>
       <c r="M225" t="n">
-        <v>-0.3447740953648303</v>
+        <v>-0.3447740953648288</v>
       </c>
     </row>
     <row r="226">
@@ -10618,10 +10618,10 @@
         <v>46</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.5254820867774385</v>
+        <v>-0.525482086777437</v>
       </c>
       <c r="M226" t="n">
-        <v>-1.790228519874757</v>
+        <v>-1.790228519874754</v>
       </c>
     </row>
     <row r="227">
@@ -10663,10 +10663,10 @@
         <v>49</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.201455565827392</v>
+        <v>-0.2014555658273895</v>
       </c>
       <c r="M227" t="n">
-        <v>-1.578301373026807</v>
+        <v>-1.578301373026803</v>
       </c>
     </row>
     <row r="228">
@@ -10708,10 +10708,10 @@
         <v>48</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.7205275679242974</v>
+        <v>-0.7205275679242975</v>
       </c>
       <c r="M228" t="n">
-        <v>-1.495718864367979</v>
+        <v>-1.495718864367975</v>
       </c>
     </row>
     <row r="229">
@@ -10753,10 +10753,10 @@
         <v>50</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.4447118223684456</v>
+        <v>-0.444711822368444</v>
       </c>
       <c r="M229" t="n">
-        <v>-1.257897329600244</v>
+        <v>-1.257897329600241</v>
       </c>
     </row>
     <row r="230">
@@ -10798,10 +10798,10 @@
         <v>73</v>
       </c>
       <c r="L230" t="n">
-        <v>-2.065692841007986</v>
+        <v>-2.065692841007988</v>
       </c>
       <c r="M230" t="n">
-        <v>1.44902567737142</v>
+        <v>1.449025677371419</v>
       </c>
     </row>
     <row r="231">
@@ -10846,7 +10846,7 @@
         <v>-1.055605062852921</v>
       </c>
       <c r="M231" t="n">
-        <v>2.789624256696807</v>
+        <v>2.789624256696798</v>
       </c>
     </row>
     <row r="232">
@@ -10888,10 +10888,10 @@
         <v>49</v>
       </c>
       <c r="L232" t="n">
-        <v>2.324314007045094</v>
+        <v>2.324314007045097</v>
       </c>
       <c r="M232" t="n">
-        <v>-0.5422946767481498</v>
+        <v>-0.5422946767481484</v>
       </c>
     </row>
     <row r="233">
@@ -10933,10 +10933,10 @@
         <v>50</v>
       </c>
       <c r="L233" t="n">
-        <v>3.89166467656689</v>
+        <v>3.891664676566893</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1748793738380501</v>
+        <v>0.1748793738380505</v>
       </c>
     </row>
     <row r="234">
@@ -10978,10 +10978,10 @@
         <v>50</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1575034402832834</v>
+        <v>0.157503440283284</v>
       </c>
       <c r="M234" t="n">
-        <v>-0.6742018647468512</v>
+        <v>-0.6742018647468506</v>
       </c>
     </row>
     <row r="235">
@@ -11023,10 +11023,10 @@
         <v>53</v>
       </c>
       <c r="L235" t="n">
-        <v>1.083108506096425</v>
+        <v>1.083108506096426</v>
       </c>
       <c r="M235" t="n">
-        <v>-0.3136679886365134</v>
+        <v>-0.3136679886365125</v>
       </c>
     </row>
     <row r="236">
@@ -11068,10 +11068,10 @@
         <v>51</v>
       </c>
       <c r="L236" t="n">
-        <v>4.362276275806137</v>
+        <v>4.362276275806141</v>
       </c>
       <c r="M236" t="n">
-        <v>0.01744457446111542</v>
+        <v>0.01744457446111715</v>
       </c>
     </row>
     <row r="237">
@@ -11113,10 +11113,10 @@
         <v>44</v>
       </c>
       <c r="L237" t="n">
-        <v>-1.455937046534655</v>
+        <v>-1.455937046534658</v>
       </c>
       <c r="M237" t="n">
-        <v>-1.629875314640375</v>
+        <v>-1.629875314640371</v>
       </c>
     </row>
     <row r="238">
@@ -11158,10 +11158,10 @@
         <v>44</v>
       </c>
       <c r="L238" t="n">
-        <v>-1.022481823114423</v>
+        <v>-1.022481823114424</v>
       </c>
       <c r="M238" t="n">
-        <v>-1.837048457580507</v>
+        <v>-1.837048457580503</v>
       </c>
     </row>
     <row r="239">
@@ -11203,10 +11203,10 @@
         <v>44</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.8955283338573046</v>
+        <v>-0.8955283338573049</v>
       </c>
       <c r="M239" t="n">
-        <v>-1.776534810433788</v>
+        <v>-1.776534810433783</v>
       </c>
     </row>
     <row r="240">
@@ -11248,10 +11248,10 @@
         <v>44</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.8841413302097096</v>
+        <v>-0.8841413302097101</v>
       </c>
       <c r="M240" t="n">
-        <v>-1.774057947289634</v>
+        <v>-1.774057947289629</v>
       </c>
     </row>
     <row r="241">
@@ -11293,10 +11293,10 @@
         <v>52</v>
       </c>
       <c r="L241" t="n">
-        <v>1.924581575869541</v>
+        <v>1.924581575869545</v>
       </c>
       <c r="M241" t="n">
-        <v>-0.4776639398445761</v>
+        <v>-0.4776639398445728</v>
       </c>
     </row>
     <row r="242">
@@ -11338,10 +11338,10 @@
         <v>77</v>
       </c>
       <c r="L242" t="n">
-        <v>-2.760963056040842</v>
+        <v>-2.760963056040846</v>
       </c>
       <c r="M242" t="n">
-        <v>1.910865593793045</v>
+        <v>1.910865593793043</v>
       </c>
     </row>
     <row r="243">
@@ -11383,10 +11383,10 @@
         <v>46</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.1312655690798929</v>
+        <v>-0.1312655690798933</v>
       </c>
       <c r="M243" t="n">
-        <v>-1.437859878579474</v>
+        <v>-1.43785987857947</v>
       </c>
     </row>
     <row r="244">
@@ -11428,10 +11428,10 @@
         <v>44</v>
       </c>
       <c r="L244" t="n">
-        <v>-1.027527523609169</v>
+        <v>-1.02752752360917</v>
       </c>
       <c r="M244" t="n">
-        <v>-1.841214019479816</v>
+        <v>-1.841214019479811</v>
       </c>
     </row>
     <row r="245">
@@ -11473,10 +11473,10 @@
         <v>44</v>
       </c>
       <c r="L245" t="n">
-        <v>-1.655450644755961</v>
+        <v>-1.655450644755965</v>
       </c>
       <c r="M245" t="n">
-        <v>-1.712068853461854</v>
+        <v>-1.71206885346185</v>
       </c>
     </row>
     <row r="246">
@@ -11518,10 +11518,10 @@
         <v>44</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.9107636562060551</v>
+        <v>-0.9107636562060556</v>
       </c>
       <c r="M246" t="n">
-        <v>-1.698829349036024</v>
+        <v>-1.69882934903602</v>
       </c>
     </row>
     <row r="247">
@@ -11563,10 +11563,10 @@
         <v>46</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.9848191965366757</v>
+        <v>-0.9848191965366759</v>
       </c>
       <c r="M247" t="n">
-        <v>-1.732696958693595</v>
+        <v>-1.732696958693591</v>
       </c>
     </row>
     <row r="248">
@@ -11608,10 +11608,10 @@
         <v>45</v>
       </c>
       <c r="L248" t="n">
-        <v>-1.153179678168052</v>
+        <v>-1.153179678168053</v>
       </c>
       <c r="M248" t="n">
-        <v>-1.757263933204429</v>
+        <v>-1.757263933204425</v>
       </c>
     </row>
     <row r="249">
@@ -11656,7 +11656,7 @@
         <v>-1.068651119912948</v>
       </c>
       <c r="M249" t="n">
-        <v>-1.796779192576668</v>
+        <v>-1.796779192576664</v>
       </c>
     </row>
     <row r="250">
@@ -11698,10 +11698,10 @@
         <v>44</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.9096142087206057</v>
+        <v>-0.9096142087206064</v>
       </c>
       <c r="M250" t="n">
-        <v>-1.736326536640847</v>
+        <v>-1.736326536640843</v>
       </c>
     </row>
     <row r="251">
@@ -11743,10 +11743,10 @@
         <v>47</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.3840138215412713</v>
+        <v>-0.3840138215412696</v>
       </c>
       <c r="M251" t="n">
-        <v>-1.598847337128898</v>
+        <v>-1.598847337128894</v>
       </c>
     </row>
     <row r="252">
@@ -11788,10 +11788,10 @@
         <v>45</v>
       </c>
       <c r="L252" t="n">
-        <v>-1.038959232818458</v>
+        <v>-1.038959232818459</v>
       </c>
       <c r="M252" t="n">
-        <v>-1.714926981932597</v>
+        <v>-1.714926981932593</v>
       </c>
     </row>
     <row r="253">
@@ -11833,10 +11833,10 @@
         <v>44</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.7272592915661432</v>
+        <v>-0.7272592915661442</v>
       </c>
       <c r="M253" t="n">
-        <v>-0.8365551446294358</v>
+        <v>-0.8365551446294367</v>
       </c>
     </row>
     <row r="254">
@@ -11878,10 +11878,10 @@
         <v>71</v>
       </c>
       <c r="L254" t="n">
-        <v>-2.528948456123342</v>
+        <v>-2.528948456123346</v>
       </c>
       <c r="M254" t="n">
-        <v>-0.2281878427758477</v>
+        <v>-0.2281878427758485</v>
       </c>
     </row>
     <row r="255">
@@ -11923,10 +11923,10 @@
         <v>49</v>
       </c>
       <c r="L255" t="n">
-        <v>4.078430763073288</v>
+        <v>4.078430763073293</v>
       </c>
       <c r="M255" t="n">
-        <v>0.01805559266746802</v>
+        <v>0.0180555926674696</v>
       </c>
     </row>
     <row r="256">
@@ -11968,10 +11968,10 @@
         <v>81</v>
       </c>
       <c r="L256" t="n">
-        <v>-1.55482202433851</v>
+        <v>-1.554822024338513</v>
       </c>
       <c r="M256" t="n">
-        <v>5.089839732251325</v>
+        <v>5.089839732251314</v>
       </c>
     </row>
     <row r="257">
@@ -12013,10 +12013,10 @@
         <v>66</v>
       </c>
       <c r="L257" t="n">
-        <v>3.00879278413711</v>
+        <v>3.008792784137113</v>
       </c>
       <c r="M257" t="n">
-        <v>1.618714172429534</v>
+        <v>1.618714172429533</v>
       </c>
     </row>
     <row r="258">
@@ -12058,10 +12058,10 @@
         <v>62</v>
       </c>
       <c r="L258" t="n">
-        <v>3.922349357373493</v>
+        <v>3.922349357373496</v>
       </c>
       <c r="M258" t="n">
-        <v>1.605287436923344</v>
+        <v>1.605287436923343</v>
       </c>
     </row>
     <row r="259">
@@ -12103,10 +12103,10 @@
         <v>44</v>
       </c>
       <c r="L259" t="n">
-        <v>-1.144445867880339</v>
+        <v>-1.144445867880344</v>
       </c>
       <c r="M259" t="n">
-        <v>-1.043126875734966</v>
+        <v>-1.043126875734963</v>
       </c>
     </row>
     <row r="260">
@@ -12148,10 +12148,10 @@
         <v>44</v>
       </c>
       <c r="L260" t="n">
-        <v>-1.11663043685106</v>
+        <v>-1.116630436851061</v>
       </c>
       <c r="M260" t="n">
-        <v>-1.834112151318559</v>
+        <v>-1.834112151318555</v>
       </c>
     </row>
     <row r="261">
@@ -12193,10 +12193,10 @@
         <v>44</v>
       </c>
       <c r="L261" t="n">
-        <v>-1.039345121796941</v>
+        <v>-1.039345121796942</v>
       </c>
       <c r="M261" t="n">
-        <v>-1.815627831520835</v>
+        <v>-1.815627831520831</v>
       </c>
     </row>
     <row r="262">
@@ -12238,10 +12238,10 @@
         <v>44</v>
       </c>
       <c r="L262" t="n">
-        <v>-1.025277115727496</v>
+        <v>-1.025277115727497</v>
       </c>
       <c r="M262" t="n">
-        <v>-1.733872678778946</v>
+        <v>-1.733872678778942</v>
       </c>
     </row>
     <row r="263">
@@ -12283,10 +12283,10 @@
         <v>45</v>
       </c>
       <c r="L263" t="n">
-        <v>-1.018514836135837</v>
+        <v>-1.018514836135838</v>
       </c>
       <c r="M263" t="n">
-        <v>-1.747842652841064</v>
+        <v>-1.74784265284106</v>
       </c>
     </row>
     <row r="264">
@@ -12328,10 +12328,10 @@
         <v>45</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.8754474503790181</v>
+        <v>-0.8754474503790184</v>
       </c>
       <c r="M264" t="n">
-        <v>-1.734786617286187</v>
+        <v>-1.734786617286183</v>
       </c>
     </row>
     <row r="265">
@@ -12373,10 +12373,10 @@
         <v>45</v>
       </c>
       <c r="L265" t="n">
-        <v>-1.125103479608152</v>
+        <v>-1.125103479608153</v>
       </c>
       <c r="M265" t="n">
-        <v>-1.770376663982913</v>
+        <v>-1.770376663982908</v>
       </c>
     </row>
     <row r="266">
@@ -12418,10 +12418,10 @@
         <v>44</v>
       </c>
       <c r="L266" t="n">
-        <v>-1.003140723717587</v>
+        <v>-1.003140723717588</v>
       </c>
       <c r="M266" t="n">
-        <v>-1.837119025761248</v>
+        <v>-1.837119025761244</v>
       </c>
     </row>
     <row r="267">
@@ -12463,10 +12463,10 @@
         <v>50</v>
       </c>
       <c r="L267" t="n">
-        <v>0.1938043228085246</v>
+        <v>0.1938043228085271</v>
       </c>
       <c r="M267" t="n">
-        <v>-1.436724126095364</v>
+        <v>-1.43672412609536</v>
       </c>
     </row>
     <row r="268">
@@ -12508,10 +12508,10 @@
         <v>44</v>
       </c>
       <c r="L268" t="n">
-        <v>-1.171344311548806</v>
+        <v>-1.171344311548807</v>
       </c>
       <c r="M268" t="n">
-        <v>-1.880307040566863</v>
+        <v>-1.880307040566858</v>
       </c>
     </row>
     <row r="269">
@@ -12553,10 +12553,10 @@
         <v>77</v>
       </c>
       <c r="L269" t="n">
-        <v>-1.369110526808368</v>
+        <v>-1.369110526808371</v>
       </c>
       <c r="M269" t="n">
-        <v>2.199814278525912</v>
+        <v>2.199814278525906</v>
       </c>
     </row>
     <row r="270">
@@ -12598,10 +12598,10 @@
         <v>47</v>
       </c>
       <c r="L270" t="n">
-        <v>0.7357488520852455</v>
+        <v>0.7357488520852463</v>
       </c>
       <c r="M270" t="n">
-        <v>-0.7505410109293904</v>
+        <v>-0.7505410109293891</v>
       </c>
     </row>
     <row r="271">
@@ -12643,10 +12643,10 @@
         <v>66</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.07833651139389293</v>
+        <v>-0.0783365113938931</v>
       </c>
       <c r="M271" t="n">
-        <v>1.312615443240987</v>
+        <v>1.312615443240984</v>
       </c>
     </row>
     <row r="272">
@@ -12688,10 +12688,10 @@
         <v>50</v>
       </c>
       <c r="L272" t="n">
-        <v>0.2735419148658979</v>
+        <v>0.2735419148658983</v>
       </c>
       <c r="M272" t="n">
-        <v>-0.6229576805941627</v>
+        <v>-0.6229576805941623</v>
       </c>
     </row>
     <row r="273">
@@ -12733,10 +12733,10 @@
         <v>49</v>
       </c>
       <c r="L273" t="n">
-        <v>2.816040830277917</v>
+        <v>2.816040830277921</v>
       </c>
       <c r="M273" t="n">
-        <v>-0.2474996428999385</v>
+        <v>-0.2474996428999374</v>
       </c>
     </row>
     <row r="274">
@@ -12778,10 +12778,10 @@
         <v>74</v>
       </c>
       <c r="L274" t="n">
-        <v>-1.293597740721548</v>
+        <v>-1.293597740721552</v>
       </c>
       <c r="M274" t="n">
-        <v>3.897351316293671</v>
+        <v>3.897351316293665</v>
       </c>
     </row>
     <row r="275">
@@ -12823,10 +12823,10 @@
         <v>49</v>
       </c>
       <c r="L275" t="n">
-        <v>3.600391697167558</v>
+        <v>3.600391697167562</v>
       </c>
       <c r="M275" t="n">
-        <v>-0.1848207692158658</v>
+        <v>-0.1848207692158628</v>
       </c>
     </row>
     <row r="276">
@@ -12868,10 +12868,10 @@
         <v>51</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.06520210264276481</v>
+        <v>-0.06520210264276653</v>
       </c>
       <c r="M276" t="n">
-        <v>-0.2342502008737323</v>
+        <v>-0.2342502008737317</v>
       </c>
     </row>
     <row r="277">
@@ -12913,10 +12913,10 @@
         <v>48</v>
       </c>
       <c r="L277" t="n">
-        <v>2.788936934410435</v>
+        <v>2.788936934410438</v>
       </c>
       <c r="M277" t="n">
-        <v>-0.4339651324772141</v>
+        <v>-0.4339651324772115</v>
       </c>
     </row>
     <row r="278">
@@ -12958,10 +12958,10 @@
         <v>48</v>
       </c>
       <c r="L278" t="n">
-        <v>1.6479370341928</v>
+        <v>1.647937034192803</v>
       </c>
       <c r="M278" t="n">
-        <v>-1.124168477516867</v>
+        <v>-1.124168477516862</v>
       </c>
     </row>
     <row r="279">
@@ -13003,10 +13003,10 @@
         <v>70</v>
       </c>
       <c r="L279" t="n">
-        <v>-2.07177200006804</v>
+        <v>-2.071772000068045</v>
       </c>
       <c r="M279" t="n">
-        <v>-0.1792563245671537</v>
+        <v>-0.1792563245671521</v>
       </c>
     </row>
     <row r="280">
@@ -13048,10 +13048,10 @@
         <v>44</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.9402342976986159</v>
+        <v>-0.9402342976986167</v>
       </c>
       <c r="M280" t="n">
-        <v>-1.771132810641675</v>
+        <v>-1.77113281064167</v>
       </c>
     </row>
     <row r="281">
@@ -13093,10 +13093,10 @@
         <v>44</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.9907006939819092</v>
+        <v>-0.9907006939819096</v>
       </c>
       <c r="M281" t="n">
-        <v>-1.811648708357452</v>
+        <v>-1.811648708357447</v>
       </c>
     </row>
     <row r="282">
@@ -13138,10 +13138,10 @@
         <v>68</v>
       </c>
       <c r="L282" t="n">
-        <v>-1.932160888464864</v>
+        <v>-1.932160888464869</v>
       </c>
       <c r="M282" t="n">
-        <v>3.777110022853942</v>
+        <v>3.777110022853932</v>
       </c>
     </row>
     <row r="283">
@@ -13183,10 +13183,10 @@
         <v>50</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.2723542716217642</v>
+        <v>-0.2723542716217636</v>
       </c>
       <c r="M283" t="n">
-        <v>-0.3110578771144271</v>
+        <v>-0.3110578771144287</v>
       </c>
     </row>
     <row r="284">
@@ -13228,10 +13228,10 @@
         <v>50</v>
       </c>
       <c r="L284" t="n">
-        <v>4.175894341160229</v>
+        <v>4.175894341160233</v>
       </c>
       <c r="M284" t="n">
-        <v>0.04879742433576521</v>
+        <v>0.04879742433576707</v>
       </c>
     </row>
     <row r="285">
@@ -13273,10 +13273,10 @@
         <v>52</v>
       </c>
       <c r="L285" t="n">
-        <v>4.349867303216794</v>
+        <v>4.3498673032168</v>
       </c>
       <c r="M285" t="n">
-        <v>0.2558146236907509</v>
+        <v>0.2558146236907525</v>
       </c>
     </row>
     <row r="286">
@@ -13318,10 +13318,10 @@
         <v>83</v>
       </c>
       <c r="L286" t="n">
-        <v>-2.148000108376418</v>
+        <v>-2.148000108376424</v>
       </c>
       <c r="M286" t="n">
-        <v>5.096164433721529</v>
+        <v>5.09616443372152</v>
       </c>
     </row>
     <row r="287">
@@ -13363,10 +13363,10 @@
         <v>55</v>
       </c>
       <c r="L287" t="n">
-        <v>2.191288790042916</v>
+        <v>2.191288790042917</v>
       </c>
       <c r="M287" t="n">
-        <v>0.5884124118647862</v>
+        <v>0.5884124118647863</v>
       </c>
     </row>
     <row r="288">
@@ -13408,10 +13408,10 @@
         <v>49</v>
       </c>
       <c r="L288" t="n">
-        <v>1.018909326157193</v>
+        <v>1.018909326157194</v>
       </c>
       <c r="M288" t="n">
-        <v>-0.7408138526195218</v>
+        <v>-0.7408138526195205</v>
       </c>
     </row>
     <row r="289">
@@ -13453,10 +13453,10 @@
         <v>59</v>
       </c>
       <c r="L289" t="n">
-        <v>1.940514286946375</v>
+        <v>1.940514286946376</v>
       </c>
       <c r="M289" t="n">
-        <v>0.9609570381942498</v>
+        <v>0.9609570381942494</v>
       </c>
     </row>
     <row r="290">
@@ -13498,10 +13498,10 @@
         <v>49</v>
       </c>
       <c r="L290" t="n">
-        <v>3.733291375284028</v>
+        <v>3.733291375284031</v>
       </c>
       <c r="M290" t="n">
-        <v>-0.04684134526776822</v>
+        <v>-0.04684134526776632</v>
       </c>
     </row>
     <row r="291">
@@ -13543,10 +13543,10 @@
         <v>59</v>
       </c>
       <c r="L291" t="n">
-        <v>3.539665664100619</v>
+        <v>3.539665664100624</v>
       </c>
       <c r="M291" t="n">
-        <v>1.117114598369164</v>
+        <v>1.117114598369163</v>
       </c>
     </row>
     <row r="292">
@@ -13588,10 +13588,10 @@
         <v>79</v>
       </c>
       <c r="L292" t="n">
-        <v>-1.309456454418605</v>
+        <v>-1.309456454418608</v>
       </c>
       <c r="M292" t="n">
-        <v>4.603594440503485</v>
+        <v>4.603594440503477</v>
       </c>
     </row>
     <row r="293">
@@ -13633,10 +13633,10 @@
         <v>50</v>
       </c>
       <c r="L293" t="n">
-        <v>-0.01843190697799801</v>
+        <v>-0.0184319069779983</v>
       </c>
       <c r="M293" t="n">
-        <v>-0.6620455746237289</v>
+        <v>-0.6620455746237282</v>
       </c>
     </row>
     <row r="294">
@@ -13678,10 +13678,10 @@
         <v>48</v>
       </c>
       <c r="L294" t="n">
-        <v>0.1245457474830895</v>
+        <v>0.1245457474830901</v>
       </c>
       <c r="M294" t="n">
-        <v>-0.9677552680334037</v>
+        <v>-0.9677552680334023</v>
       </c>
     </row>
     <row r="295">
@@ -13723,10 +13723,10 @@
         <v>45</v>
       </c>
       <c r="L295" t="n">
-        <v>-0.3324240717345338</v>
+        <v>-0.3324240717345353</v>
       </c>
       <c r="M295" t="n">
-        <v>-1.041946705710747</v>
+        <v>-1.041946705710745</v>
       </c>
     </row>
     <row r="296">
@@ -13768,10 +13768,10 @@
         <v>81</v>
       </c>
       <c r="L296" t="n">
-        <v>-1.87103517954361</v>
+        <v>-1.871035179543616</v>
       </c>
       <c r="M296" t="n">
-        <v>3.304561810680545</v>
+        <v>3.30456181068054</v>
       </c>
     </row>
     <row r="297">
@@ -13813,10 +13813,10 @@
         <v>49</v>
       </c>
       <c r="L297" t="n">
-        <v>-0.2754500406506481</v>
+        <v>-0.2754500406506499</v>
       </c>
       <c r="M297" t="n">
-        <v>-0.6767509991416798</v>
+        <v>-0.6767509991416785</v>
       </c>
     </row>
     <row r="298">
@@ -13858,10 +13858,10 @@
         <v>71</v>
       </c>
       <c r="L298" t="n">
-        <v>-1.383428338299663</v>
+        <v>-1.383428338299664</v>
       </c>
       <c r="M298" t="n">
-        <v>0.6498970203852836</v>
+        <v>0.6498970203852834</v>
       </c>
     </row>
     <row r="299">
@@ -13903,10 +13903,10 @@
         <v>47</v>
       </c>
       <c r="L299" t="n">
-        <v>-0.9365096677119188</v>
+        <v>-0.9365096677119191</v>
       </c>
       <c r="M299" t="n">
-        <v>-1.381957329071286</v>
+        <v>-1.381957329071282</v>
       </c>
     </row>
     <row r="300">
@@ -13948,10 +13948,10 @@
         <v>48</v>
       </c>
       <c r="L300" t="n">
-        <v>0.05045203105848957</v>
+        <v>0.05045203105849117</v>
       </c>
       <c r="M300" t="n">
-        <v>-1.487965272473337</v>
+        <v>-1.487965272473333</v>
       </c>
     </row>
     <row r="301">
@@ -13993,10 +13993,10 @@
         <v>53</v>
       </c>
       <c r="L301" t="n">
-        <v>-0.1222652465728589</v>
+        <v>-0.1222652465728571</v>
       </c>
       <c r="M301" t="n">
-        <v>0.08831275781604797</v>
+        <v>0.08831275781604557</v>
       </c>
     </row>
     <row r="302">
@@ -14038,10 +14038,10 @@
         <v>45</v>
       </c>
       <c r="L302" t="n">
-        <v>-0.4473204758677951</v>
+        <v>-0.4473204758677958</v>
       </c>
       <c r="M302" t="n">
-        <v>-0.7273680765303908</v>
+        <v>-0.7273680765303916</v>
       </c>
     </row>
     <row r="303">
@@ -14083,10 +14083,10 @@
         <v>74</v>
       </c>
       <c r="L303" t="n">
-        <v>-1.996881897807729</v>
+        <v>-1.996881897807734</v>
       </c>
       <c r="M303" t="n">
-        <v>2.435879070790991</v>
+        <v>2.435879070790984</v>
       </c>
     </row>
     <row r="304">
@@ -14128,10 +14128,10 @@
         <v>75</v>
       </c>
       <c r="L304" t="n">
-        <v>-1.444859473841011</v>
+        <v>-1.444859473841013</v>
       </c>
       <c r="M304" t="n">
-        <v>4.184540635355026</v>
+        <v>4.184540635355017</v>
       </c>
     </row>
     <row r="305">
@@ -14173,10 +14173,10 @@
         <v>68</v>
       </c>
       <c r="L305" t="n">
-        <v>-1.05366443563593</v>
+        <v>-1.053664435635929</v>
       </c>
       <c r="M305" t="n">
-        <v>-0.1284271834161305</v>
+        <v>-0.1284271834161311</v>
       </c>
     </row>
     <row r="306">
@@ -14218,10 +14218,10 @@
         <v>72</v>
       </c>
       <c r="L306" t="n">
-        <v>-1.260710078369401</v>
+        <v>-1.260710078369405</v>
       </c>
       <c r="M306" t="n">
-        <v>3.854750921090719</v>
+        <v>3.854750921090712</v>
       </c>
     </row>
     <row r="307">
@@ -14263,10 +14263,10 @@
         <v>47</v>
       </c>
       <c r="L307" t="n">
-        <v>0.4124902975372591</v>
+        <v>0.4124902975372598</v>
       </c>
       <c r="M307" t="n">
-        <v>-0.8265543133041363</v>
+        <v>-0.8265543133041349</v>
       </c>
     </row>
     <row r="308">
@@ -14308,10 +14308,10 @@
         <v>68</v>
       </c>
       <c r="L308" t="n">
-        <v>2.707886349349818</v>
+        <v>2.707886349349819</v>
       </c>
       <c r="M308" t="n">
-        <v>2.123585819964384</v>
+        <v>2.123585819964383</v>
       </c>
     </row>
     <row r="309">
@@ -14353,10 +14353,10 @@
         <v>50</v>
       </c>
       <c r="L309" t="n">
-        <v>0.5422956503903371</v>
+        <v>0.5422956503903379</v>
       </c>
       <c r="M309" t="n">
-        <v>-0.5050384093621807</v>
+        <v>-0.5050384093621796</v>
       </c>
     </row>
     <row r="310">
@@ -14398,10 +14398,10 @@
         <v>49</v>
       </c>
       <c r="L310" t="n">
-        <v>0.2158125693052805</v>
+        <v>0.215812569305281</v>
       </c>
       <c r="M310" t="n">
-        <v>-0.8037370430725732</v>
+        <v>-0.8037370430725718</v>
       </c>
     </row>
     <row r="311">
@@ -14443,10 +14443,10 @@
         <v>49</v>
       </c>
       <c r="L311" t="n">
-        <v>1.247821347318954</v>
+        <v>1.247821347318956</v>
       </c>
       <c r="M311" t="n">
-        <v>-0.6615403521534757</v>
+        <v>-0.661540352153474</v>
       </c>
     </row>
     <row r="312">
@@ -14488,10 +14488,10 @@
         <v>62</v>
       </c>
       <c r="L312" t="n">
-        <v>-1.308620756321645</v>
+        <v>-1.308620756321646</v>
       </c>
       <c r="M312" t="n">
-        <v>-0.6788867594661542</v>
+        <v>-0.6788867594661518</v>
       </c>
     </row>
     <row r="313">
@@ -14533,10 +14533,10 @@
         <v>50</v>
       </c>
       <c r="L313" t="n">
-        <v>-0.924784141648929</v>
+        <v>-0.9247841416489297</v>
       </c>
       <c r="M313" t="n">
-        <v>-1.130926091877347</v>
+        <v>-1.130926091877344</v>
       </c>
     </row>
     <row r="314">
@@ -14578,10 +14578,10 @@
         <v>44</v>
       </c>
       <c r="L314" t="n">
-        <v>-1.069632655336491</v>
+        <v>-1.069632655336493</v>
       </c>
       <c r="M314" t="n">
-        <v>-1.867111023310916</v>
+        <v>-1.867111023310911</v>
       </c>
     </row>
     <row r="315">
@@ -14623,10 +14623,10 @@
         <v>47</v>
       </c>
       <c r="L315" t="n">
-        <v>-0.7772915138865965</v>
+        <v>-0.7772915138865968</v>
       </c>
       <c r="M315" t="n">
-        <v>-1.402843871080304</v>
+        <v>-1.402843871080301</v>
       </c>
     </row>
     <row r="316">
@@ -14668,10 +14668,10 @@
         <v>44</v>
       </c>
       <c r="L316" t="n">
-        <v>-0.6429327765072603</v>
+        <v>-0.6429327765072604</v>
       </c>
       <c r="M316" t="n">
-        <v>-1.732060759373634</v>
+        <v>-1.732060759373629</v>
       </c>
     </row>
     <row r="317">
@@ -14713,10 +14713,10 @@
         <v>54</v>
       </c>
       <c r="L317" t="n">
-        <v>-0.1893846884045045</v>
+        <v>-0.1893846884045035</v>
       </c>
       <c r="M317" t="n">
-        <v>-0.1420629606990755</v>
+        <v>-0.1420629606990774</v>
       </c>
     </row>
     <row r="318">
@@ -14758,10 +14758,10 @@
         <v>44</v>
       </c>
       <c r="L318" t="n">
-        <v>-0.6660891425491553</v>
+        <v>-0.6660891425491562</v>
       </c>
       <c r="M318" t="n">
-        <v>-0.8211410851996972</v>
+        <v>-0.821141085199698</v>
       </c>
     </row>
     <row r="319">
@@ -14803,10 +14803,10 @@
         <v>52</v>
       </c>
       <c r="L319" t="n">
-        <v>2.506132276388291</v>
+        <v>2.506132276388293</v>
       </c>
       <c r="M319" t="n">
-        <v>-0.01976925232880488</v>
+        <v>-0.01976925232880299</v>
       </c>
     </row>
     <row r="320">
@@ -14848,10 +14848,10 @@
         <v>47</v>
       </c>
       <c r="L320" t="n">
-        <v>0.7635932301793701</v>
+        <v>0.763593230179371</v>
       </c>
       <c r="M320" t="n">
-        <v>-0.9295455345126153</v>
+        <v>-0.9295455345126131</v>
       </c>
     </row>
     <row r="321">
@@ -14893,10 +14893,10 @@
         <v>77</v>
       </c>
       <c r="L321" t="n">
-        <v>-1.205927930933914</v>
+        <v>-1.205927930933917</v>
       </c>
       <c r="M321" t="n">
-        <v>2.458249423580799</v>
+        <v>2.458249423580795</v>
       </c>
     </row>
     <row r="322">
@@ -14938,10 +14938,10 @@
         <v>60</v>
       </c>
       <c r="L322" t="n">
-        <v>-1.226788308505687</v>
+        <v>-1.226788308505688</v>
       </c>
       <c r="M322" t="n">
-        <v>-1.103067245389761</v>
+        <v>-1.103067245389757</v>
       </c>
     </row>
     <row r="323">
@@ -14983,10 +14983,10 @@
         <v>75</v>
       </c>
       <c r="L323" t="n">
-        <v>-1.383324707603134</v>
+        <v>-1.383324707603136</v>
       </c>
       <c r="M323" t="n">
-        <v>0.1032861174019723</v>
+        <v>0.1032861174019737</v>
       </c>
     </row>
     <row r="324">
@@ -15028,10 +15028,10 @@
         <v>46</v>
       </c>
       <c r="L324" t="n">
-        <v>-0.4886223248166174</v>
+        <v>-0.4886223248166158</v>
       </c>
       <c r="M324" t="n">
-        <v>-1.774777716395983</v>
+        <v>-1.774777716395979</v>
       </c>
     </row>
     <row r="325">
@@ -15073,10 +15073,10 @@
         <v>47</v>
       </c>
       <c r="L325" t="n">
-        <v>-0.6898595246020978</v>
+        <v>-0.6898595246020982</v>
       </c>
       <c r="M325" t="n">
-        <v>-1.468315864476122</v>
+        <v>-1.468315864476118</v>
       </c>
     </row>
     <row r="326">
@@ -15118,10 +15118,10 @@
         <v>79</v>
       </c>
       <c r="L326" t="n">
-        <v>-2.429357530882787</v>
+        <v>-2.429357530882791</v>
       </c>
       <c r="M326" t="n">
-        <v>0.1686051949127688</v>
+        <v>0.1686051949127699</v>
       </c>
     </row>
     <row r="327">
@@ -15163,10 +15163,10 @@
         <v>55</v>
       </c>
       <c r="L327" t="n">
-        <v>-1.78097049190807</v>
+        <v>-1.780970491908075</v>
       </c>
       <c r="M327" t="n">
-        <v>2.564382822090817</v>
+        <v>2.56438282209081</v>
       </c>
     </row>
     <row r="328">
@@ -15208,10 +15208,10 @@
         <v>48</v>
       </c>
       <c r="L328" t="n">
-        <v>-0.5081617804070165</v>
+        <v>-0.5081617804070175</v>
       </c>
       <c r="M328" t="n">
-        <v>-0.5197753400221963</v>
+        <v>-0.5197753400221974</v>
       </c>
     </row>
     <row r="329">
@@ -15253,10 +15253,10 @@
         <v>61</v>
       </c>
       <c r="L329" t="n">
-        <v>3.413591467778938</v>
+        <v>3.413591467778942</v>
       </c>
       <c r="M329" t="n">
-        <v>0.9865103312664538</v>
+        <v>0.986510331266454</v>
       </c>
     </row>
     <row r="330">
@@ -15298,10 +15298,10 @@
         <v>55</v>
       </c>
       <c r="L330" t="n">
-        <v>3.92000875034621</v>
+        <v>3.920008750346213</v>
       </c>
       <c r="M330" t="n">
-        <v>0.5386247899060698</v>
+        <v>0.5386247899060708</v>
       </c>
     </row>
     <row r="331">
@@ -15343,10 +15343,10 @@
         <v>54</v>
       </c>
       <c r="L331" t="n">
-        <v>0.1487911490830803</v>
+        <v>0.1487911490830807</v>
       </c>
       <c r="M331" t="n">
-        <v>-0.009182374859430706</v>
+        <v>-0.009182374859430477</v>
       </c>
     </row>
     <row r="332">
@@ -15388,10 +15388,10 @@
         <v>71</v>
       </c>
       <c r="L332" t="n">
-        <v>-1.477009547583291</v>
+        <v>-1.477009547583293</v>
       </c>
       <c r="M332" t="n">
-        <v>0.1889269313086513</v>
+        <v>0.1889269313086527</v>
       </c>
     </row>
     <row r="333">
@@ -15433,10 +15433,10 @@
         <v>49</v>
       </c>
       <c r="L333" t="n">
-        <v>0.1701347956679029</v>
+        <v>0.1701347956679055</v>
       </c>
       <c r="M333" t="n">
-        <v>-1.367451056992117</v>
+        <v>-1.367451056992114</v>
       </c>
     </row>
     <row r="334">
@@ -15478,10 +15478,10 @@
         <v>48</v>
       </c>
       <c r="L334" t="n">
-        <v>0.1741095580168703</v>
+        <v>0.1741095580168718</v>
       </c>
       <c r="M334" t="n">
-        <v>-1.478509285349807</v>
+        <v>-1.478509285349803</v>
       </c>
     </row>
     <row r="335">
@@ -15523,10 +15523,10 @@
         <v>47</v>
       </c>
       <c r="L335" t="n">
-        <v>-1.400358795508729</v>
+        <v>-1.40035879550873</v>
       </c>
       <c r="M335" t="n">
-        <v>-1.179383299918252</v>
+        <v>-1.17938329991825</v>
       </c>
     </row>
     <row r="336">
@@ -15568,10 +15568,10 @@
         <v>83</v>
       </c>
       <c r="L336" t="n">
-        <v>-2.096333463480258</v>
+        <v>-2.096333463480264</v>
       </c>
       <c r="M336" t="n">
-        <v>4.963105209654062</v>
+        <v>4.963105209654055</v>
       </c>
     </row>
     <row r="337">
@@ -15613,10 +15613,10 @@
         <v>50</v>
       </c>
       <c r="L337" t="n">
-        <v>2.460544032588576</v>
+        <v>2.460544032588579</v>
       </c>
       <c r="M337" t="n">
-        <v>-0.2392866561692692</v>
+        <v>-0.2392866561692668</v>
       </c>
     </row>
     <row r="338">
@@ -15658,10 +15658,10 @@
         <v>43</v>
       </c>
       <c r="L338" t="n">
-        <v>-0.9097797821640857</v>
+        <v>-0.9097797821640863</v>
       </c>
       <c r="M338" t="n">
-        <v>-1.87562116604162</v>
+        <v>-1.875621166041615</v>
       </c>
     </row>
     <row r="339">
@@ -15703,10 +15703,10 @@
         <v>75</v>
       </c>
       <c r="L339" t="n">
-        <v>-2.365306399295462</v>
+        <v>-2.365306399295466</v>
       </c>
       <c r="M339" t="n">
-        <v>-0.2151472155140845</v>
+        <v>-0.2151472155140825</v>
       </c>
     </row>
     <row r="340">
@@ -15748,10 +15748,10 @@
         <v>71</v>
       </c>
       <c r="L340" t="n">
-        <v>-2.354356520940901</v>
+        <v>-2.354356520940905</v>
       </c>
       <c r="M340" t="n">
-        <v>1.036371698688331</v>
+        <v>1.036371698688332</v>
       </c>
     </row>
     <row r="341">
@@ -15793,7 +15793,7 @@
         <v>79</v>
       </c>
       <c r="L341" t="n">
-        <v>-2.455083969013831</v>
+        <v>-2.455083969013837</v>
       </c>
       <c r="M341" t="n">
         <v>1.634519801713517</v>
@@ -15838,10 +15838,10 @@
         <v>69</v>
       </c>
       <c r="L342" t="n">
-        <v>2.098809989782421</v>
+        <v>2.098809989782419</v>
       </c>
       <c r="M342" t="n">
-        <v>2.764540441689187</v>
+        <v>2.764540441689183</v>
       </c>
     </row>
     <row r="343">
@@ -15883,10 +15883,10 @@
         <v>65</v>
       </c>
       <c r="L343" t="n">
-        <v>-1.550502575449568</v>
+        <v>-1.550502575449569</v>
       </c>
       <c r="M343" t="n">
-        <v>0.1832039847277892</v>
+        <v>0.1832039847277883</v>
       </c>
     </row>
     <row r="344">
@@ -15928,7 +15928,7 @@
         <v>60</v>
       </c>
       <c r="L344" t="n">
-        <v>6.121804707400941</v>
+        <v>6.121804707400943</v>
       </c>
       <c r="M344" t="n">
         <v>2.123827707867857</v>
@@ -15973,10 +15973,10 @@
         <v>50</v>
       </c>
       <c r="L345" t="n">
-        <v>0.01398567023547638</v>
+        <v>0.0139856702354748</v>
       </c>
       <c r="M345" t="n">
-        <v>-0.4238218589286768</v>
+        <v>-0.4238218589286748</v>
       </c>
     </row>
     <row r="346">
@@ -16018,10 +16018,10 @@
         <v>44</v>
       </c>
       <c r="L346" t="n">
-        <v>-0.7472723943403029</v>
+        <v>-0.7472723943403037</v>
       </c>
       <c r="M346" t="n">
-        <v>-1.71480869940218</v>
+        <v>-1.714808699402175</v>
       </c>
     </row>
     <row r="347">
@@ -16063,10 +16063,10 @@
         <v>45</v>
       </c>
       <c r="L347" t="n">
-        <v>-0.4565484231113134</v>
+        <v>-0.4565484231113119</v>
       </c>
       <c r="M347" t="n">
-        <v>-1.719184928828053</v>
+        <v>-1.719184928828048</v>
       </c>
     </row>
     <row r="348">
@@ -16108,10 +16108,10 @@
         <v>69</v>
       </c>
       <c r="L348" t="n">
-        <v>-1.596467652536747</v>
+        <v>-1.596467652536748</v>
       </c>
       <c r="M348" t="n">
-        <v>0.5621429553559498</v>
+        <v>0.5621429553559507</v>
       </c>
     </row>
     <row r="349">
@@ -16153,10 +16153,10 @@
         <v>51</v>
       </c>
       <c r="L349" t="n">
-        <v>2.742332339197612</v>
+        <v>2.742332339197615</v>
       </c>
       <c r="M349" t="n">
-        <v>-0.6543537146330508</v>
+        <v>-0.6543537146330463</v>
       </c>
     </row>
     <row r="350">
@@ -16198,7 +16198,7 @@
         <v>75</v>
       </c>
       <c r="L350" t="n">
-        <v>-0.8851624736416969</v>
+        <v>-0.885162473641695</v>
       </c>
       <c r="M350" t="n">
         <v>1.600640558994922</v>
@@ -16243,10 +16243,10 @@
         <v>74</v>
       </c>
       <c r="L351" t="n">
-        <v>-0.9046970969524529</v>
+        <v>-0.9046970969524536</v>
       </c>
       <c r="M351" t="n">
-        <v>0.4240539879855973</v>
+        <v>0.424053987985599</v>
       </c>
     </row>
     <row r="352">
@@ -16288,10 +16288,10 @@
         <v>47</v>
       </c>
       <c r="L352" t="n">
-        <v>-0.8342380632284996</v>
+        <v>-0.8342380632284998</v>
       </c>
       <c r="M352" t="n">
-        <v>-1.47142951242653</v>
+        <v>-1.471429512426526</v>
       </c>
     </row>
     <row r="353">
@@ -16333,10 +16333,10 @@
         <v>80</v>
       </c>
       <c r="L353" t="n">
-        <v>-2.319108178545848</v>
+        <v>-2.319108178545852</v>
       </c>
       <c r="M353" t="n">
-        <v>0.7468022020195909</v>
+        <v>0.7468022020195915</v>
       </c>
     </row>
     <row r="354">
@@ -16378,10 +16378,10 @@
         <v>58</v>
       </c>
       <c r="L354" t="n">
-        <v>-1.189162598332434</v>
+        <v>-1.189162598332436</v>
       </c>
       <c r="M354" t="n">
-        <v>2.652007077521348</v>
+        <v>2.652007077521342</v>
       </c>
     </row>
     <row r="355">
@@ -16423,10 +16423,10 @@
         <v>67</v>
       </c>
       <c r="L355" t="n">
-        <v>-1.915774212671314</v>
+        <v>-1.915774212671315</v>
       </c>
       <c r="M355" t="n">
-        <v>0.3800129927585528</v>
+        <v>0.3800129927585517</v>
       </c>
     </row>
     <row r="356">
@@ -16468,10 +16468,10 @@
         <v>52</v>
       </c>
       <c r="L356" t="n">
-        <v>0.1907693414179793</v>
+        <v>0.1907693414179797</v>
       </c>
       <c r="M356" t="n">
-        <v>-0.4040472383059174</v>
+        <v>-0.4040472383059161</v>
       </c>
     </row>
     <row r="357">
@@ -16513,10 +16513,10 @@
         <v>48</v>
       </c>
       <c r="L357" t="n">
-        <v>0.2215445914473676</v>
+        <v>0.2215445914473681</v>
       </c>
       <c r="M357" t="n">
-        <v>-0.8206164297208914</v>
+        <v>-0.8206164297208893</v>
       </c>
     </row>
     <row r="358">
@@ -16558,10 +16558,10 @@
         <v>82</v>
       </c>
       <c r="L358" t="n">
-        <v>-2.585034989903572</v>
+        <v>-2.585034989903577</v>
       </c>
       <c r="M358" t="n">
-        <v>0.906846159490823</v>
+        <v>0.9068461594908235</v>
       </c>
     </row>
     <row r="359">
@@ -16603,10 +16603,10 @@
         <v>69</v>
       </c>
       <c r="L359" t="n">
-        <v>-0.8224970514573217</v>
+        <v>-0.8224970514573203</v>
       </c>
       <c r="M359" t="n">
-        <v>-0.5089075173234532</v>
+        <v>-0.5089075173234507</v>
       </c>
     </row>
     <row r="360">
@@ -16648,10 +16648,10 @@
         <v>72</v>
       </c>
       <c r="L360" t="n">
-        <v>-1.624907595430349</v>
+        <v>-1.62490759543035</v>
       </c>
       <c r="M360" t="n">
-        <v>-0.361259232973861</v>
+        <v>-0.3612592329738585</v>
       </c>
     </row>
     <row r="361">
@@ -16693,10 +16693,10 @@
         <v>45</v>
       </c>
       <c r="L361" t="n">
-        <v>-0.6566679009922501</v>
+        <v>-0.6566679009922506</v>
       </c>
       <c r="M361" t="n">
-        <v>-1.523307571523395</v>
+        <v>-1.52330757152339</v>
       </c>
     </row>
     <row r="362">
@@ -16738,10 +16738,10 @@
         <v>47</v>
       </c>
       <c r="L362" t="n">
-        <v>-0.7664962619264117</v>
+        <v>-0.7664962619264123</v>
       </c>
       <c r="M362" t="n">
-        <v>-1.539906465473017</v>
+        <v>-1.539906465473012</v>
       </c>
     </row>
     <row r="363">
@@ -16783,10 +16783,10 @@
         <v>76</v>
       </c>
       <c r="L363" t="n">
-        <v>-2.692300665146426</v>
+        <v>-2.69230066514643</v>
       </c>
       <c r="M363" t="n">
-        <v>1.409215531414516</v>
+        <v>1.409215531414515</v>
       </c>
     </row>
     <row r="364">
@@ -16828,10 +16828,10 @@
         <v>59</v>
       </c>
       <c r="L364" t="n">
-        <v>0.185340906963245</v>
+        <v>0.1853409069632466</v>
       </c>
       <c r="M364" t="n">
-        <v>0.6483149403398412</v>
+        <v>0.6483149403398389</v>
       </c>
     </row>
     <row r="365">
@@ -16873,10 +16873,10 @@
         <v>66</v>
       </c>
       <c r="L365" t="n">
-        <v>-2.010707224972345</v>
+        <v>-2.010707224972346</v>
       </c>
       <c r="M365" t="n">
-        <v>0.06544240518336111</v>
+        <v>0.06544240518336074</v>
       </c>
     </row>
     <row r="366">
@@ -16918,10 +16918,10 @@
         <v>65</v>
       </c>
       <c r="L366" t="n">
-        <v>-2.581932325360223</v>
+        <v>-2.581932325360226</v>
       </c>
       <c r="M366" t="n">
-        <v>0.6006690240867778</v>
+        <v>0.6006690240867769</v>
       </c>
     </row>
     <row r="367">
@@ -16966,7 +16966,7 @@
         <v>-1.446536907726767</v>
       </c>
       <c r="M367" t="n">
-        <v>-0.7387203628481751</v>
+        <v>-0.7387203628481741</v>
       </c>
     </row>
     <row r="368">
@@ -17008,10 +17008,10 @@
         <v>71</v>
       </c>
       <c r="L368" t="n">
-        <v>-2.281061548596183</v>
+        <v>-2.281061548596185</v>
       </c>
       <c r="M368" t="n">
-        <v>1.173797198536698</v>
+        <v>1.173797198536696</v>
       </c>
     </row>
     <row r="369">
@@ -17053,10 +17053,10 @@
         <v>70</v>
       </c>
       <c r="L369" t="n">
-        <v>-1.683147297387085</v>
+        <v>-1.683147297387086</v>
       </c>
       <c r="M369" t="n">
-        <v>0.6866110226119759</v>
+        <v>0.6866110226119746</v>
       </c>
     </row>
     <row r="370">
@@ -17098,10 +17098,10 @@
         <v>46</v>
       </c>
       <c r="L370" t="n">
-        <v>0.12700557630345</v>
+        <v>0.1270055763034501</v>
       </c>
       <c r="M370" t="n">
-        <v>-1.079964900059851</v>
+        <v>-1.079964900059848</v>
       </c>
     </row>
     <row r="371">
@@ -17143,10 +17143,10 @@
         <v>51</v>
       </c>
       <c r="L371" t="n">
-        <v>0.2551490988631862</v>
+        <v>0.2551490988631887</v>
       </c>
       <c r="M371" t="n">
-        <v>-1.354980518357458</v>
+        <v>-1.354980518357453</v>
       </c>
     </row>
     <row r="372">
@@ -17188,10 +17188,10 @@
         <v>47</v>
       </c>
       <c r="L372" t="n">
-        <v>2.118775864154682</v>
+        <v>2.118775864154687</v>
       </c>
       <c r="M372" t="n">
-        <v>-1.146041311938235</v>
+        <v>-1.146041311938229</v>
       </c>
     </row>
     <row r="373">
@@ -17233,10 +17233,10 @@
         <v>78</v>
       </c>
       <c r="L373" t="n">
-        <v>-0.7392756706095548</v>
+        <v>-0.7392756706095556</v>
       </c>
       <c r="M373" t="n">
-        <v>2.331477190735731</v>
+        <v>2.331477190735727</v>
       </c>
     </row>
     <row r="374">
@@ -17278,10 +17278,10 @@
         <v>64</v>
       </c>
       <c r="L374" t="n">
-        <v>-0.7345185333455376</v>
+        <v>-0.7345185333455398</v>
       </c>
       <c r="M374" t="n">
-        <v>0.9188011202666495</v>
+        <v>0.9188011202666486</v>
       </c>
     </row>
     <row r="375">
@@ -17323,10 +17323,10 @@
         <v>46</v>
       </c>
       <c r="L375" t="n">
-        <v>0.3594875582269527</v>
+        <v>0.3594875582269535</v>
       </c>
       <c r="M375" t="n">
-        <v>-1.083955449907701</v>
+        <v>-1.083955449907698</v>
       </c>
     </row>
     <row r="376">
@@ -17368,10 +17368,10 @@
         <v>47</v>
       </c>
       <c r="L376" t="n">
-        <v>-0.2578680623945345</v>
+        <v>-0.2578680623945359</v>
       </c>
       <c r="M376" t="n">
-        <v>-0.8506297222639115</v>
+        <v>-0.8506297222639094</v>
       </c>
     </row>
     <row r="377">
@@ -17413,10 +17413,10 @@
         <v>49</v>
       </c>
       <c r="L377" t="n">
-        <v>0.2916723547667787</v>
+        <v>0.2916723547667796</v>
       </c>
       <c r="M377" t="n">
-        <v>-0.7581679118906465</v>
+        <v>-0.7581679118906443</v>
       </c>
     </row>
     <row r="378">
@@ -17458,10 +17458,10 @@
         <v>48</v>
       </c>
       <c r="L378" t="n">
-        <v>0.1663960012114079</v>
+        <v>0.1663960012114085</v>
       </c>
       <c r="M378" t="n">
-        <v>-0.7875617957557903</v>
+        <v>-0.787561795755788</v>
       </c>
     </row>
     <row r="379">
@@ -17503,7 +17503,7 @@
         <v>83</v>
       </c>
       <c r="L379" t="n">
-        <v>-2.770388910157268</v>
+        <v>-2.770388910157272</v>
       </c>
       <c r="M379" t="n">
         <v>1.449527762659403</v>
@@ -17548,10 +17548,10 @@
         <v>75</v>
       </c>
       <c r="L380" t="n">
-        <v>-2.168729462245345</v>
+        <v>-2.168729462245349</v>
       </c>
       <c r="M380" t="n">
-        <v>0.1969633045385786</v>
+        <v>0.1969633045385804</v>
       </c>
     </row>
     <row r="381">
@@ -17593,10 +17593,10 @@
         <v>72</v>
       </c>
       <c r="L381" t="n">
-        <v>-1.433888621229697</v>
+        <v>-1.433888621229699</v>
       </c>
       <c r="M381" t="n">
-        <v>-0.1356383764723092</v>
+        <v>-0.1356383764723066</v>
       </c>
     </row>
     <row r="382">
@@ -17638,10 +17638,10 @@
         <v>67</v>
       </c>
       <c r="L382" t="n">
-        <v>-0.09017012434143777</v>
+        <v>-0.09017012434143597</v>
       </c>
       <c r="M382" t="n">
-        <v>1.217731475625174</v>
+        <v>1.217731475625171</v>
       </c>
     </row>
     <row r="383">
@@ -17683,10 +17683,10 @@
         <v>54</v>
       </c>
       <c r="L383" t="n">
-        <v>-0.8038743201285214</v>
+        <v>-0.8038743201285228</v>
       </c>
       <c r="M383" t="n">
-        <v>0.2824160614988987</v>
+        <v>0.2824160614988973</v>
       </c>
     </row>
     <row r="384">
@@ -17728,7 +17728,7 @@
         <v>52</v>
       </c>
       <c r="L384" t="n">
-        <v>3.572813609316979</v>
+        <v>3.572813609316984</v>
       </c>
       <c r="M384" t="n">
         <v>0.6908316954594401</v>
@@ -17773,7 +17773,7 @@
         <v>58</v>
       </c>
       <c r="L385" t="n">
-        <v>-1.652465868573797</v>
+        <v>-1.652465868573798</v>
       </c>
       <c r="M385" t="n">
         <v>-0.1452058733337693</v>
@@ -17818,10 +17818,10 @@
         <v>83</v>
       </c>
       <c r="L386" t="n">
-        <v>-1.484398271556394</v>
+        <v>-1.484398271556398</v>
       </c>
       <c r="M386" t="n">
-        <v>4.475002174091784</v>
+        <v>4.475002174091777</v>
       </c>
     </row>
     <row r="387">
@@ -17863,10 +17863,10 @@
         <v>79</v>
       </c>
       <c r="L387" t="n">
-        <v>-1.864465438576871</v>
+        <v>-1.864465438576877</v>
       </c>
       <c r="M387" t="n">
-        <v>3.393362540408881</v>
+        <v>3.393362540408877</v>
       </c>
     </row>
     <row r="388">
@@ -17908,10 +17908,10 @@
         <v>48</v>
       </c>
       <c r="L388" t="n">
-        <v>4.044287313281177</v>
+        <v>4.044287313281181</v>
       </c>
       <c r="M388" t="n">
-        <v>0.1145855137796315</v>
+        <v>0.1145855137796341</v>
       </c>
     </row>
     <row r="389">
@@ -17953,10 +17953,10 @@
         <v>55</v>
       </c>
       <c r="L389" t="n">
-        <v>0.03532615155593223</v>
+        <v>0.03532615155593192</v>
       </c>
       <c r="M389" t="n">
-        <v>-0.09459017898206969</v>
+        <v>-0.0945901789820682</v>
       </c>
     </row>
     <row r="390">
@@ -17998,10 +17998,10 @@
         <v>54</v>
       </c>
       <c r="L390" t="n">
-        <v>4.039598862935921</v>
+        <v>4.039598862935925</v>
       </c>
       <c r="M390" t="n">
-        <v>0.4467355804702194</v>
+        <v>0.4467355804702218</v>
       </c>
     </row>
     <row r="391">
@@ -18043,10 +18043,10 @@
         <v>45</v>
       </c>
       <c r="L391" t="n">
-        <v>-0.4391504550574385</v>
+        <v>-0.4391504550574368</v>
       </c>
       <c r="M391" t="n">
-        <v>-1.828698126699812</v>
+        <v>-1.828698126699806</v>
       </c>
     </row>
     <row r="392">
@@ -18088,10 +18088,10 @@
         <v>45</v>
       </c>
       <c r="L392" t="n">
-        <v>-0.9529049544719231</v>
+        <v>-0.9529049544719239</v>
       </c>
       <c r="M392" t="n">
-        <v>-1.744896820231676</v>
+        <v>-1.74489682023167</v>
       </c>
     </row>
     <row r="393">
@@ -18133,10 +18133,10 @@
         <v>43</v>
       </c>
       <c r="L393" t="n">
-        <v>-1.019874380338518</v>
+        <v>-1.019874380338519</v>
       </c>
       <c r="M393" t="n">
-        <v>-1.9330562665269</v>
+        <v>-1.933056266526894</v>
       </c>
     </row>
     <row r="394">
@@ -18178,10 +18178,10 @@
         <v>44</v>
       </c>
       <c r="L394" t="n">
-        <v>-0.8260230003569345</v>
+        <v>-0.8260230003569349</v>
       </c>
       <c r="M394" t="n">
-        <v>-1.834582814672746</v>
+        <v>-1.83458281467274</v>
       </c>
     </row>
     <row r="395">
@@ -18223,10 +18223,10 @@
         <v>43</v>
       </c>
       <c r="L395" t="n">
-        <v>-1.403809271490578</v>
+        <v>-1.403809271490581</v>
       </c>
       <c r="M395" t="n">
-        <v>-1.668757820329172</v>
+        <v>-1.668757820329166</v>
       </c>
     </row>
     <row r="396">
@@ -18268,10 +18268,10 @@
         <v>43</v>
       </c>
       <c r="L396" t="n">
-        <v>-1.037095044994654</v>
+        <v>-1.037095044994655</v>
       </c>
       <c r="M396" t="n">
-        <v>-1.932511808271519</v>
+        <v>-1.932511808271512</v>
       </c>
     </row>
     <row r="397">
@@ -18313,10 +18313,10 @@
         <v>43</v>
       </c>
       <c r="L397" t="n">
-        <v>-1.086158989251854</v>
+        <v>-1.086158989251855</v>
       </c>
       <c r="M397" t="n">
-        <v>-1.956306504468035</v>
+        <v>-1.956306504468029</v>
       </c>
     </row>
     <row r="398">
@@ -18358,10 +18358,10 @@
         <v>44</v>
       </c>
       <c r="L398" t="n">
-        <v>-0.9828250355718988</v>
+        <v>-0.9828250355718993</v>
       </c>
       <c r="M398" t="n">
-        <v>-1.843414334406287</v>
+        <v>-1.843414334406281</v>
       </c>
     </row>
     <row r="399">
@@ -18403,10 +18403,10 @@
         <v>43</v>
       </c>
       <c r="L399" t="n">
-        <v>-0.7415157817663374</v>
+        <v>-0.7415157817663373</v>
       </c>
       <c r="M399" t="n">
-        <v>-1.831892903574342</v>
+        <v>-1.831892903574337</v>
       </c>
     </row>
     <row r="400">
@@ -18448,10 +18448,10 @@
         <v>43</v>
       </c>
       <c r="L400" t="n">
-        <v>-1.099039875094207</v>
+        <v>-1.099039875094208</v>
       </c>
       <c r="M400" t="n">
-        <v>-1.959387224434322</v>
+        <v>-1.959387224434316</v>
       </c>
     </row>
     <row r="401">
@@ -18493,10 +18493,10 @@
         <v>44</v>
       </c>
       <c r="L401" t="n">
-        <v>-0.9486203777231349</v>
+        <v>-0.9486203777231355</v>
       </c>
       <c r="M401" t="n">
-        <v>-1.740344849190067</v>
+        <v>-1.740344849190061</v>
       </c>
     </row>
     <row r="402">
@@ -18538,10 +18538,10 @@
         <v>43</v>
       </c>
       <c r="L402" t="n">
-        <v>-1.030341817268324</v>
+        <v>-1.030341817268325</v>
       </c>
       <c r="M402" t="n">
-        <v>-1.942956717947456</v>
+        <v>-1.94295671794745</v>
       </c>
     </row>
     <row r="403">
@@ -18583,10 +18583,10 @@
         <v>43</v>
       </c>
       <c r="L403" t="n">
-        <v>-1.092912216978184</v>
+        <v>-1.092912216978185</v>
       </c>
       <c r="M403" t="n">
-        <v>-1.945861594792097</v>
+        <v>-1.945861594792091</v>
       </c>
     </row>
     <row r="404">
@@ -18631,7 +18631,7 @@
         <v>-1.396212879715504</v>
       </c>
       <c r="M404" t="n">
-        <v>-1.569169801479759</v>
+        <v>-1.569169801479756</v>
       </c>
     </row>
     <row r="405">
@@ -18673,10 +18673,10 @@
         <v>60</v>
       </c>
       <c r="L405" t="n">
-        <v>-1.458679648229079</v>
+        <v>-1.45867964822908</v>
       </c>
       <c r="M405" t="n">
-        <v>-0.0251588395290398</v>
+        <v>-0.0251588395290397</v>
       </c>
     </row>
     <row r="406">
@@ -18718,10 +18718,10 @@
         <v>69</v>
       </c>
       <c r="L406" t="n">
-        <v>-1.789620893972928</v>
+        <v>-1.789620893972929</v>
       </c>
       <c r="M406" t="n">
-        <v>0.3867415113609156</v>
+        <v>0.3867415113609152</v>
       </c>
     </row>
     <row r="407">
@@ -18763,10 +18763,10 @@
         <v>48</v>
       </c>
       <c r="L407" t="n">
-        <v>3.69731328281972</v>
+        <v>3.697313282819723</v>
       </c>
       <c r="M407" t="n">
-        <v>-0.1871912698927063</v>
+        <v>-0.1871912698927028</v>
       </c>
     </row>
     <row r="408">
@@ -18808,10 +18808,10 @@
         <v>48</v>
       </c>
       <c r="L408" t="n">
-        <v>0.3050614576858938</v>
+        <v>0.3050614576858945</v>
       </c>
       <c r="M408" t="n">
-        <v>-0.7698199872080862</v>
+        <v>-0.7698199872080838</v>
       </c>
     </row>
     <row r="409">
@@ -18853,10 +18853,10 @@
         <v>49</v>
       </c>
       <c r="L409" t="n">
-        <v>4.062336017630504</v>
+        <v>4.062336017630509</v>
       </c>
       <c r="M409" t="n">
-        <v>-0.2200149769626436</v>
+        <v>-0.2200149769626405</v>
       </c>
     </row>
     <row r="410">
@@ -18898,10 +18898,10 @@
         <v>51</v>
       </c>
       <c r="L410" t="n">
-        <v>1.298601764102476</v>
+        <v>1.298601764102479</v>
       </c>
       <c r="M410" t="n">
-        <v>-0.8063912918431183</v>
+        <v>-0.8063912918431159</v>
       </c>
     </row>
     <row r="411">
@@ -18943,10 +18943,10 @@
         <v>72</v>
       </c>
       <c r="L411" t="n">
-        <v>-1.931012939092253</v>
+        <v>-1.931012939092257</v>
       </c>
       <c r="M411" t="n">
-        <v>1.616895930832179</v>
+        <v>1.61689593083218</v>
       </c>
     </row>
     <row r="412">
@@ -18988,10 +18988,10 @@
         <v>82</v>
       </c>
       <c r="L412" t="n">
-        <v>-2.026960643605543</v>
+        <v>-2.026960643605544</v>
       </c>
       <c r="M412" t="n">
-        <v>0.7482398026309912</v>
+        <v>0.7482398026309924</v>
       </c>
     </row>
     <row r="413">
@@ -19033,10 +19033,10 @@
         <v>43</v>
       </c>
       <c r="L413" t="n">
-        <v>-1.034928460054288</v>
+        <v>-1.034928460054289</v>
       </c>
       <c r="M413" t="n">
-        <v>-1.936690003073976</v>
+        <v>-1.93669000307397</v>
       </c>
     </row>
     <row r="414">
@@ -19078,10 +19078,10 @@
         <v>47</v>
       </c>
       <c r="L414" t="n">
-        <v>1.783398874942444</v>
+        <v>1.783398874942448</v>
       </c>
       <c r="M414" t="n">
-        <v>-1.225548605888255</v>
+        <v>-1.225548605888248</v>
       </c>
     </row>
     <row r="415">
@@ -19123,10 +19123,10 @@
         <v>53</v>
       </c>
       <c r="L415" t="n">
-        <v>-1.763304690710649</v>
+        <v>-1.763304690710654</v>
       </c>
       <c r="M415" t="n">
-        <v>2.502023634471911</v>
+        <v>2.502023634471906</v>
       </c>
     </row>
     <row r="416">
@@ -19168,10 +19168,10 @@
         <v>50</v>
       </c>
       <c r="L416" t="n">
-        <v>-0.01214280117210483</v>
+        <v>-0.01214280117210377</v>
       </c>
       <c r="M416" t="n">
-        <v>-0.2166892339327007</v>
+        <v>-0.2166892339327013</v>
       </c>
     </row>
     <row r="417">
@@ -19213,10 +19213,10 @@
         <v>49</v>
       </c>
       <c r="L417" t="n">
-        <v>0.3570640376819711</v>
+        <v>0.3570640376819722</v>
       </c>
       <c r="M417" t="n">
-        <v>-1.032069833619531</v>
+        <v>-1.032069833619527</v>
       </c>
     </row>
     <row r="418">
@@ -19258,10 +19258,10 @@
         <v>46</v>
       </c>
       <c r="L418" t="n">
-        <v>0.5229073730753127</v>
+        <v>0.5229073730753135</v>
       </c>
       <c r="M418" t="n">
-        <v>-0.939725614761968</v>
+        <v>-0.9397256147619648</v>
       </c>
     </row>
     <row r="419">
@@ -19303,10 +19303,10 @@
         <v>48</v>
       </c>
       <c r="L419" t="n">
-        <v>0.3397643817018025</v>
+        <v>0.3397643817018032</v>
       </c>
       <c r="M419" t="n">
-        <v>-0.8204868222245493</v>
+        <v>-0.8204868222245465</v>
       </c>
     </row>
     <row r="420">
@@ -19348,10 +19348,10 @@
         <v>49</v>
       </c>
       <c r="L420" t="n">
-        <v>0.2926308126237954</v>
+        <v>0.2926308126237959</v>
       </c>
       <c r="M420" t="n">
-        <v>-0.6440300682529357</v>
+        <v>-0.6440300682529333</v>
       </c>
     </row>
     <row r="421">
@@ -19393,10 +19393,10 @@
         <v>56</v>
       </c>
       <c r="L421" t="n">
-        <v>4.257808350283829</v>
+        <v>4.257808350283834</v>
       </c>
       <c r="M421" t="n">
-        <v>0.5738451121281575</v>
+        <v>0.5738451121281596</v>
       </c>
     </row>
     <row r="422">
@@ -19438,10 +19438,10 @@
         <v>52</v>
       </c>
       <c r="L422" t="n">
-        <v>0.3020761136825824</v>
+        <v>0.3020761136825829</v>
       </c>
       <c r="M422" t="n">
-        <v>-0.3373112960317015</v>
+        <v>-0.3373112960316992</v>
       </c>
     </row>
     <row r="423">
@@ -19483,10 +19483,10 @@
         <v>50</v>
       </c>
       <c r="L423" t="n">
-        <v>0.2025574865339601</v>
+        <v>0.2025574865339605</v>
       </c>
       <c r="M423" t="n">
-        <v>-0.5576006368997999</v>
+        <v>-0.5576006368997977</v>
       </c>
     </row>
     <row r="424">
@@ -19528,10 +19528,10 @@
         <v>77</v>
       </c>
       <c r="L424" t="n">
-        <v>-1.595045792982049</v>
+        <v>-1.595045792982051</v>
       </c>
       <c r="M424" t="n">
-        <v>0.7404711327896623</v>
+        <v>0.7404711327896634</v>
       </c>
     </row>
     <row r="425">
@@ -19573,10 +19573,10 @@
         <v>47</v>
       </c>
       <c r="L425" t="n">
-        <v>-0.4566568445023461</v>
+        <v>-0.4566568445023443</v>
       </c>
       <c r="M425" t="n">
-        <v>-1.529402839396939</v>
+        <v>-1.529402839396934</v>
       </c>
     </row>
     <row r="426">
@@ -19618,10 +19618,10 @@
         <v>71</v>
       </c>
       <c r="L426" t="n">
-        <v>-1.552942635602563</v>
+        <v>-1.552942635602565</v>
       </c>
       <c r="M426" t="n">
-        <v>0.3711003713735252</v>
+        <v>0.3711003713735273</v>
       </c>
     </row>
     <row r="427">
@@ -19663,10 +19663,10 @@
         <v>61</v>
       </c>
       <c r="L427" t="n">
-        <v>0.07092702337142319</v>
+        <v>0.07092702337142469</v>
       </c>
       <c r="M427" t="n">
-        <v>0.5792417994652034</v>
+        <v>0.5792417994652018</v>
       </c>
     </row>
     <row r="428">
@@ -19708,10 +19708,10 @@
         <v>71</v>
       </c>
       <c r="L428" t="n">
-        <v>-1.531543977109417</v>
+        <v>-1.531543977109422</v>
       </c>
       <c r="M428" t="n">
-        <v>1.018155144794356</v>
+        <v>1.018155144794355</v>
       </c>
     </row>
     <row r="429">
@@ -19753,10 +19753,10 @@
         <v>49</v>
       </c>
       <c r="L429" t="n">
-        <v>0.01385865114442454</v>
+        <v>0.01385865114442571</v>
       </c>
       <c r="M429" t="n">
-        <v>-0.3351991829065265</v>
+        <v>-0.3351991829065268</v>
       </c>
     </row>
     <row r="430">
@@ -19798,10 +19798,10 @@
         <v>67</v>
       </c>
       <c r="L430" t="n">
-        <v>-2.145681543466671</v>
+        <v>-2.145681543466676</v>
       </c>
       <c r="M430" t="n">
-        <v>3.977786237944013</v>
+        <v>3.977786237944006</v>
       </c>
     </row>
     <row r="431">
@@ -19843,10 +19843,10 @@
         <v>57</v>
       </c>
       <c r="L431" t="n">
-        <v>3.784750849362228</v>
+        <v>3.784750849362232</v>
       </c>
       <c r="M431" t="n">
-        <v>1.095707193398389</v>
+        <v>1.095707193398388</v>
       </c>
     </row>
     <row r="432">
@@ -19888,10 +19888,10 @@
         <v>55</v>
       </c>
       <c r="L432" t="n">
-        <v>5.208953060856732</v>
+        <v>5.208953060856735</v>
       </c>
       <c r="M432" t="n">
-        <v>0.7587364488958571</v>
+        <v>0.7587364488958593</v>
       </c>
     </row>
     <row r="433">
@@ -19933,10 +19933,10 @@
         <v>49</v>
       </c>
       <c r="L433" t="n">
-        <v>-0.1991786172174637</v>
+        <v>-0.1991786172174651</v>
       </c>
       <c r="M433" t="n">
-        <v>-0.6666253782696951</v>
+        <v>-0.6666253782696921</v>
       </c>
     </row>
     <row r="434">
@@ -19978,10 +19978,10 @@
         <v>47</v>
       </c>
       <c r="L434" t="n">
-        <v>-0.03669066051315396</v>
+        <v>-0.03669066051315549</v>
       </c>
       <c r="M434" t="n">
-        <v>-0.7699802823613513</v>
+        <v>-0.7699802823613483</v>
       </c>
     </row>
     <row r="435">
@@ -20021,10 +20021,10 @@
       </c>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
-        <v>0.7367016864507695</v>
+        <v>0.7367016864507707</v>
       </c>
       <c r="M435" t="n">
-        <v>-0.275828376721463</v>
+        <v>-0.2758283767214612</v>
       </c>
     </row>
     <row r="436">
@@ -20066,10 +20066,10 @@
         <v>49</v>
       </c>
       <c r="L436" t="n">
-        <v>0.5891810631073632</v>
+        <v>0.589181063107364</v>
       </c>
       <c r="M436" t="n">
-        <v>-0.5054400858762962</v>
+        <v>-0.5054400858762934</v>
       </c>
     </row>
     <row r="437">
@@ -20111,10 +20111,10 @@
         <v>48</v>
       </c>
       <c r="L437" t="n">
-        <v>-0.1842460509694293</v>
+        <v>-0.1842460509694308</v>
       </c>
       <c r="M437" t="n">
-        <v>-0.5586079284544141</v>
+        <v>-0.5586079284544115</v>
       </c>
     </row>
     <row r="438">
@@ -20156,10 +20156,10 @@
         <v>80</v>
       </c>
       <c r="L438" t="n">
-        <v>-1.540140280868278</v>
+        <v>-1.540140280868284</v>
       </c>
       <c r="M438" t="n">
-        <v>2.004263994230309</v>
+        <v>2.004263994230307</v>
       </c>
     </row>
     <row r="439">
@@ -20201,10 +20201,10 @@
         <v>49</v>
       </c>
       <c r="L439" t="n">
-        <v>0.2916626077713259</v>
+        <v>0.2916626077713267</v>
       </c>
       <c r="M439" t="n">
-        <v>-0.6878720785929523</v>
+        <v>-0.6878720785929495</v>
       </c>
     </row>
     <row r="440">
@@ -20246,10 +20246,10 @@
         <v>43</v>
       </c>
       <c r="L440" t="n">
-        <v>-1.105421006115464</v>
+        <v>-1.105421006115465</v>
       </c>
       <c r="M440" t="n">
-        <v>-1.975002528807982</v>
+        <v>-1.975002528807975</v>
       </c>
     </row>
     <row r="441">
@@ -20291,10 +20291,10 @@
         <v>66</v>
       </c>
       <c r="L441" t="n">
-        <v>-1.938638455664205</v>
+        <v>-1.938638455664209</v>
       </c>
       <c r="M441" t="n">
-        <v>-0.2349771782394323</v>
+        <v>-0.2349771782394292</v>
       </c>
     </row>
     <row r="442">
@@ -20336,10 +20336,10 @@
         <v>64</v>
       </c>
       <c r="L442" t="n">
-        <v>-0.8495929172822979</v>
+        <v>-0.8495929172822967</v>
       </c>
       <c r="M442" t="n">
-        <v>-0.3417327643037127</v>
+        <v>-0.3417327643037099</v>
       </c>
     </row>
     <row r="443">
@@ -20381,10 +20381,10 @@
         <v>45</v>
       </c>
       <c r="L443" t="n">
-        <v>-0.7634832256046987</v>
+        <v>-0.7634832256046989</v>
       </c>
       <c r="M443" t="n">
-        <v>-1.618905690816164</v>
+        <v>-1.618905690816158</v>
       </c>
     </row>
     <row r="444">
@@ -20426,10 +20426,10 @@
         <v>84</v>
       </c>
       <c r="L444" t="n">
-        <v>-2.36982344137362</v>
+        <v>-2.369823441373625</v>
       </c>
       <c r="M444" t="n">
-        <v>1.323352082651759</v>
+        <v>1.32335208265176</v>
       </c>
     </row>
     <row r="445">
@@ -20471,10 +20471,10 @@
         <v>52</v>
       </c>
       <c r="L445" t="n">
-        <v>-0.9479249117121078</v>
+        <v>-0.9479249117121086</v>
       </c>
       <c r="M445" t="n">
-        <v>-0.9392922649633599</v>
+        <v>-0.9392922649633557</v>
       </c>
     </row>
     <row r="446">
@@ -20516,10 +20516,10 @@
         <v>50</v>
       </c>
       <c r="L446" t="n">
-        <v>-0.1004319604294071</v>
+        <v>-0.1004319604294062</v>
       </c>
       <c r="M446" t="n">
-        <v>-0.1553805909060736</v>
+        <v>-0.155380590906074</v>
       </c>
     </row>
     <row r="447">
@@ -20561,7 +20561,7 @@
         <v>55</v>
       </c>
       <c r="L447" t="n">
-        <v>4.831286377337371</v>
+        <v>4.831286377337373</v>
       </c>
       <c r="M447" t="n">
         <v>1.697666434733948</v>
@@ -20606,10 +20606,10 @@
         <v>52</v>
       </c>
       <c r="L448" t="n">
-        <v>0.7120523498136411</v>
+        <v>0.7120523498136422</v>
       </c>
       <c r="M448" t="n">
-        <v>0.1862885592079089</v>
+        <v>0.1862885592079085</v>
       </c>
     </row>
     <row r="449">
@@ -20651,7 +20651,7 @@
         <v>80</v>
       </c>
       <c r="L449" t="n">
-        <v>-2.298518084888793</v>
+        <v>-2.298518084888794</v>
       </c>
       <c r="M449" t="n">
         <v>0.9192464270234895</v>
@@ -20696,10 +20696,10 @@
         <v>48</v>
       </c>
       <c r="L450" t="n">
-        <v>3.181792767198503</v>
+        <v>3.181792767198506</v>
       </c>
       <c r="M450" t="n">
-        <v>-0.3561478920752342</v>
+        <v>-0.3561478920752296</v>
       </c>
     </row>
     <row r="451">
@@ -20741,10 +20741,10 @@
         <v>59</v>
       </c>
       <c r="L451" t="n">
-        <v>3.71408420427638</v>
+        <v>3.714084204276384</v>
       </c>
       <c r="M451" t="n">
-        <v>0.9024558768264744</v>
+        <v>0.9024558768264757</v>
       </c>
     </row>
     <row r="452">
@@ -20786,10 +20786,10 @@
         <v>44</v>
       </c>
       <c r="L452" t="n">
-        <v>0.2540504413414769</v>
+        <v>0.2540504413414779</v>
       </c>
       <c r="M452" t="n">
-        <v>-1.212642164684746</v>
+        <v>-1.212642164684742</v>
       </c>
     </row>
     <row r="453">
@@ -20831,10 +20831,10 @@
         <v>60</v>
       </c>
       <c r="L453" t="n">
-        <v>-0.4143260156311876</v>
+        <v>-0.4143260156311897</v>
       </c>
       <c r="M453" t="n">
-        <v>0.7598258547281644</v>
+        <v>0.7598258547281649</v>
       </c>
     </row>
     <row r="454">
@@ -20876,10 +20876,10 @@
         <v>83</v>
       </c>
       <c r="L454" t="n">
-        <v>-0.6847860097592831</v>
+        <v>-0.6847860097592834</v>
       </c>
       <c r="M454" t="n">
-        <v>2.354365593215762</v>
+        <v>2.354365593215759</v>
       </c>
     </row>
     <row r="455">
@@ -20921,10 +20921,10 @@
         <v>48</v>
       </c>
       <c r="L455" t="n">
-        <v>4.794521441886276</v>
+        <v>4.794521441886281</v>
       </c>
       <c r="M455" t="n">
-        <v>-0.06964848156733182</v>
+        <v>-0.06964848156732731</v>
       </c>
     </row>
     <row r="456">
@@ -20966,10 +20966,10 @@
         <v>50</v>
       </c>
       <c r="L456" t="n">
-        <v>2.266354140489563</v>
+        <v>2.266354140489566</v>
       </c>
       <c r="M456" t="n">
-        <v>-0.5019403761487722</v>
+        <v>-0.5019403761487681</v>
       </c>
     </row>
     <row r="457">
@@ -21011,10 +21011,10 @@
         <v>54</v>
       </c>
       <c r="L457" t="n">
-        <v>4.895614809846261</v>
+        <v>4.895614809846266</v>
       </c>
       <c r="M457" t="n">
-        <v>0.5686955789785246</v>
+        <v>0.5686955789785267</v>
       </c>
     </row>
     <row r="458">
@@ -21056,10 +21056,10 @@
         <v>45</v>
       </c>
       <c r="L458" t="n">
-        <v>0.3431437364820009</v>
+        <v>0.3431437364820016</v>
       </c>
       <c r="M458" t="n">
-        <v>-1.203962257049832</v>
+        <v>-1.203962257049827</v>
       </c>
     </row>
     <row r="459">
@@ -21101,10 +21101,10 @@
         <v>48</v>
       </c>
       <c r="L459" t="n">
-        <v>3.811751788711136</v>
+        <v>3.811751788711141</v>
       </c>
       <c r="M459" t="n">
-        <v>-0.2812122168079267</v>
+        <v>-0.2812122168079226</v>
       </c>
     </row>
     <row r="460">
@@ -21149,7 +21149,7 @@
         <v>-1.055534490945149</v>
       </c>
       <c r="M460" t="n">
-        <v>-2.015439419894744</v>
+        <v>-2.015439419894738</v>
       </c>
     </row>
     <row r="461">
@@ -21194,7 +21194,7 @@
         <v>-1.000690408169628</v>
       </c>
       <c r="M461" t="n">
-        <v>-1.747463782257742</v>
+        <v>-1.747463782257736</v>
       </c>
     </row>
     <row r="462">
@@ -21236,10 +21236,10 @@
         <v>70</v>
       </c>
       <c r="L462" t="n">
-        <v>-2.117118891023413</v>
+        <v>-2.117118891023418</v>
       </c>
       <c r="M462" t="n">
-        <v>0.3800367386929522</v>
+        <v>0.3800367386929546</v>
       </c>
     </row>
     <row r="463">
@@ -21281,10 +21281,10 @@
         <v>50</v>
       </c>
       <c r="L463" t="n">
-        <v>1.393084776139415</v>
+        <v>1.393084776139418</v>
       </c>
       <c r="M463" t="n">
-        <v>-0.7799308497312303</v>
+        <v>-0.7799308497312252</v>
       </c>
     </row>
     <row r="464">
@@ -21329,7 +21329,7 @@
         <v>-1.24397936294153</v>
       </c>
       <c r="M464" t="n">
-        <v>0.999295113770777</v>
+        <v>0.9992951137707782</v>
       </c>
     </row>
     <row r="465">
@@ -21371,10 +21371,10 @@
         <v>51</v>
       </c>
       <c r="L465" t="n">
-        <v>3.612798234868817</v>
+        <v>3.612798234868821</v>
       </c>
       <c r="M465" t="n">
-        <v>-0.1424319446189378</v>
+        <v>-0.1424319446189345</v>
       </c>
     </row>
     <row r="466">
@@ -21416,10 +21416,10 @@
         <v>51</v>
       </c>
       <c r="L466" t="n">
-        <v>-0.1118653524223219</v>
+        <v>-0.1118653524223235</v>
       </c>
       <c r="M466" t="n">
-        <v>-0.2434958247538304</v>
+        <v>-0.2434958247538281</v>
       </c>
     </row>
     <row r="467">
@@ -21461,10 +21461,10 @@
         <v>65</v>
       </c>
       <c r="L467" t="n">
-        <v>-1.427013264735569</v>
+        <v>-1.42701326473557</v>
       </c>
       <c r="M467" t="n">
-        <v>0.2036092217923516</v>
+        <v>0.203609221792354</v>
       </c>
     </row>
     <row r="468">
@@ -21506,10 +21506,10 @@
         <v>46</v>
       </c>
       <c r="L468" t="n">
-        <v>0.2795681196156689</v>
+        <v>0.2795681196156714</v>
       </c>
       <c r="M468" t="n">
-        <v>-1.557339967933636</v>
+        <v>-1.55733996793363</v>
       </c>
     </row>
     <row r="469">
@@ -21551,10 +21551,10 @@
         <v>48</v>
       </c>
       <c r="L469" t="n">
-        <v>2.110103684986746</v>
+        <v>2.11010368498675</v>
       </c>
       <c r="M469" t="n">
-        <v>-0.9630392635383138</v>
+        <v>-0.9630392635383075</v>
       </c>
     </row>
     <row r="470">
@@ -21596,10 +21596,10 @@
         <v>49</v>
       </c>
       <c r="L470" t="n">
-        <v>-0.5078139766950663</v>
+        <v>-0.5078139766950648</v>
       </c>
       <c r="M470" t="n">
-        <v>-1.371974658207724</v>
+        <v>-1.371974658207718</v>
       </c>
     </row>
     <row r="471">
@@ -21641,10 +21641,10 @@
         <v>50</v>
       </c>
       <c r="L471" t="n">
-        <v>-0.6360287703298243</v>
+        <v>-0.6360287703298255</v>
       </c>
       <c r="M471" t="n">
-        <v>-0.2038380619777921</v>
+        <v>-0.2038380619777918</v>
       </c>
     </row>
     <row r="472">
@@ -21686,10 +21686,10 @@
         <v>47</v>
       </c>
       <c r="L472" t="n">
-        <v>-0.09267014750641205</v>
+        <v>-0.09267014750641096</v>
       </c>
       <c r="M472" t="n">
-        <v>-0.6268915448943091</v>
+        <v>-0.6268915448943086</v>
       </c>
     </row>
     <row r="473">
@@ -21731,10 +21731,10 @@
         <v>47</v>
       </c>
       <c r="L473" t="n">
-        <v>0.5721894248720411</v>
+        <v>0.5721894248720419</v>
       </c>
       <c r="M473" t="n">
-        <v>-0.831355124846091</v>
+        <v>-0.8313551248460875</v>
       </c>
     </row>
     <row r="474">
@@ -21776,10 +21776,10 @@
         <v>76</v>
       </c>
       <c r="L474" t="n">
-        <v>-1.604295686912439</v>
+        <v>-1.604295686912441</v>
       </c>
       <c r="M474" t="n">
-        <v>0.3177334921796908</v>
+        <v>0.3177334921796935</v>
       </c>
     </row>
     <row r="475">
@@ -21821,10 +21821,10 @@
         <v>45</v>
       </c>
       <c r="L475" t="n">
-        <v>-0.7127285555576403</v>
+        <v>-0.7127285555576404</v>
       </c>
       <c r="M475" t="n">
-        <v>-1.715969542653311</v>
+        <v>-1.715969542653305</v>
       </c>
     </row>
   </sheetData>
